--- a/SEMESTER 1/METODE KOMPUTASI/Tugas 1-Metode Komputasi-Tobias Mikha S.xlsx
+++ b/SEMESTER 1/METODE KOMPUTASI/Tugas 1-Metode Komputasi-Tobias Mikha S.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S2-Pascasarjana\SEMESTER 1\METODE KOMPUTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DB4578-E1D4-44FC-B31E-BACB1EA961AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2FB1FD-58BC-4828-B5C2-5F7C2FC5EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{6657444D-609B-4AE6-9913-8E06838AEC8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6657444D-609B-4AE6-9913-8E06838AEC8D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bisection Methode" sheetId="2" r:id="rId1"/>
-    <sheet name="False Posistion" sheetId="1" r:id="rId2"/>
-    <sheet name="Newthon Raphson" sheetId="3" r:id="rId3"/>
+    <sheet name="Question" sheetId="5" r:id="rId1"/>
+    <sheet name="Bisection Methode" sheetId="2" r:id="rId2"/>
+    <sheet name="False Posistion" sheetId="1" r:id="rId3"/>
+    <sheet name="Newthon Raphson" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Bracketing Methode Using Bisection method</t>
   </si>
@@ -98,6 +99,21 @@
   </si>
   <si>
     <t xml:space="preserve">Xr =(xl+xu)/2 </t>
+  </si>
+  <si>
+    <t>f(xr)</t>
+  </si>
+  <si>
+    <t>667.38/xr</t>
+  </si>
+  <si>
+    <t>1-e^-0,146843.xr</t>
+  </si>
+  <si>
+    <t>TUGAS 1 METODE KOMPUTASI</t>
+  </si>
+  <si>
+    <t>TOBIAS MIKHA SULISTIYO - 202400090001</t>
   </si>
 </sst>
 </file>
@@ -317,7 +333,199 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -368,8 +576,14 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -385,17 +599,10 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -410,158 +617,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -581,6 +638,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10034</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A9E10C-85A0-2798-E659-A6B6BD70A432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="1181100"/>
+          <a:ext cx="3648584" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>494893</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -588,7 +694,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>119060</xdr:colOff>
+      <xdr:colOff>160473</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>184289</xdr:rowOff>
     </xdr:to>
@@ -626,7 +732,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -719,7 +825,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -857,38 +963,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}" name="Table1" displayName="Table1" ref="B7:M17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="B7:M17" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BC69F195-AC58-4B23-A62C-922368062220}" name="i" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7CC36258-545D-47AC-A452-CDB701EFA973}" name="xl" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{3BA4263D-B6C7-4626-AD9F-8A368D275840}" name="xu" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{42814F3B-44B5-4F04-A0CE-A9F04DF1F28C}" name="xl-xu" dataDxfId="3">
-      <calculatedColumnFormula>C8-D8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{D9D59088-0D9F-41F2-B2CA-184272B8E34F}" name="xr" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}" name="Table1" displayName="Table1" ref="B7:O17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="B7:O17" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{BC69F195-AC58-4B23-A62C-922368062220}" name="i" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7CC36258-545D-47AC-A452-CDB701EFA973}" name="xl" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3BA4263D-B6C7-4626-AD9F-8A368D275840}" name="xu" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D9D59088-0D9F-41F2-B2CA-184272B8E34F}" name="xr" dataDxfId="10">
       <calculatedColumnFormula>(C8+D8)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F4208EA9-EFD3-42F4-9AFE-9E9FE6A9D7D9}" name="667.38/xl" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{F4208EA9-EFD3-42F4-9AFE-9E9FE6A9D7D9}" name="667.38/xl" dataDxfId="9">
       <calculatedColumnFormula xml:space="preserve"> 667.38/C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F2D4131-5E54-4322-A760-27D95B868261}" name="1-e^-0,146843.xl" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{4F2D4131-5E54-4322-A760-27D95B868261}" name="1-e^-0,146843.xl" dataDxfId="8">
       <calculatedColumnFormula xml:space="preserve"> 1-EXP(-0.146843*C8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DB6FC6C-38EE-4568-B86E-E64A181EBB26}" name="667.38/xu" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{9DB6FC6C-38EE-4568-B86E-E64A181EBB26}" name="667.38/xu" dataDxfId="7">
       <calculatedColumnFormula xml:space="preserve"> 667.38/D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DD6B4F6-866B-4DE7-A9C3-78FABC8B01A8}" name="1-e^-0,146843.xu" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{9DD6B4F6-866B-4DE7-A9C3-78FABC8B01A8}" name="1-e^-0,146843.xu" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> 1-EXP(-0.146843*D8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F49D8CF5-6895-41B2-BC1C-8C71699D2263}" name="f(xl)" dataDxfId="10">
-      <calculatedColumnFormula>G8*H8-40</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{C1E42285-0994-4278-ACE3-91841F1E13F3}" name="667.38/xr" dataDxfId="5">
+      <calculatedColumnFormula xml:space="preserve"> 667.38/E8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1F20747E-AF3A-4473-9892-98A0FB31B9E0}" name="f(xu)" dataDxfId="9">
-      <calculatedColumnFormula>I8*J8-40</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{A5941068-4CB7-4398-864A-CE4F5206F45E}" name="1-e^-0,146843.xr" dataDxfId="4">
+      <calculatedColumnFormula xml:space="preserve"> 1-EXP(-0.146843*E8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{91570E41-F327-41B0-8F04-1FA2B762FDDE}" name="er(%)" dataDxfId="8">
-      <calculatedColumnFormula>ABS((F8-F7)/F8)*100</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{F49D8CF5-6895-41B2-BC1C-8C71699D2263}" name="f(xl)" dataDxfId="3">
+      <calculatedColumnFormula>F8*G8-40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1F20747E-AF3A-4473-9892-98A0FB31B9E0}" name="f(xu)" dataDxfId="2">
+      <calculatedColumnFormula>H8*I8-40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7EDA6EBE-A196-44AD-B325-F2DF4A1AC33F}" name="f(xr)" dataDxfId="1">
+      <calculatedColumnFormula>J8*K8-40</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{91570E41-F327-41B0-8F04-1FA2B762FDDE}" name="er(%)" dataDxfId="0">
+      <calculatedColumnFormula>ABS((E8-E7)/E8)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1191,12 +1303,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD839E-7E43-48A8-866D-F74D29177295}">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C5523C-A026-4C79-8E15-824A62390A11}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,26 +1342,27 @@
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="5" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1234,34 +1373,40 @@
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>1</v>
       </c>
@@ -1271,43 +1416,51 @@
       <c r="D8" s="10">
         <v>0.08</v>
       </c>
-      <c r="E8" s="10">
-        <f>C8-D8</f>
-        <v>-7.2000000000000008E-2</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="18">
         <f>(C8+D8)/2</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G8" s="10">
+      <c r="F8" s="10">
         <f xml:space="preserve"> 667.38/C8</f>
         <v>83422.5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="G8" s="10">
         <f xml:space="preserve"> 1-EXP(-0.146843*C8)</f>
         <v>1.1740542583835722E-3</v>
       </c>
-      <c r="I8" s="10">
+      <c r="H8" s="10">
         <f xml:space="preserve"> 667.38/D8</f>
         <v>8342.25</v>
       </c>
-      <c r="J8" s="10">
+      <c r="I8" s="10">
         <f xml:space="preserve"> 1-EXP(-0.146843*D8)</f>
         <v>1.1678708230771329E-2</v>
       </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:J17" si="0" xml:space="preserve"> 667.38/E8</f>
+        <v>15167.727272727274</v>
+      </c>
       <c r="K8" s="10">
-        <f>G8*H8-40</f>
+        <f t="shared" ref="K8:K17" si="1" xml:space="preserve"> 1-EXP(-0.146843*E8)</f>
+        <v>6.440264026376763E-3</v>
+      </c>
+      <c r="L8" s="10">
+        <f>F8*G8-40</f>
         <v>57.942541370003553</v>
       </c>
-      <c r="L8" s="10">
-        <f>I8*J8-40</f>
+      <c r="M8" s="10">
+        <f>H8*I8-40</f>
         <v>57.426703738152113</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="10">
+        <f t="shared" ref="N8:N17" si="2">J8*K8-40</f>
+        <v>57.684168316439198</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>2</v>
       </c>
@@ -1317,44 +1470,52 @@
       <c r="D9" s="10">
         <v>0.08</v>
       </c>
-      <c r="E9" s="10">
-        <f>C9-D9</f>
-        <v>-3.6000000000000004E-2</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="18">
         <f>(C9+D9)/2</f>
         <v>6.2E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="F9" s="10">
         <f xml:space="preserve"> 667.38/C9</f>
         <v>15167.727272727274</v>
       </c>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
         <f xml:space="preserve"> 1-EXP(-0.146843*C9)</f>
         <v>6.440264026376763E-3</v>
       </c>
-      <c r="I9" s="10">
+      <c r="H9" s="10">
         <f xml:space="preserve"> 667.38/D9</f>
         <v>8342.25</v>
       </c>
-      <c r="J9" s="10">
+      <c r="I9" s="10">
         <f xml:space="preserve"> 1-EXP(-0.146843*D9)</f>
         <v>1.1678708230771329E-2</v>
       </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>10764.193548387097</v>
+      </c>
       <c r="K9" s="10">
-        <f>G9*H9-40</f>
+        <f t="shared" si="1"/>
+        <v>9.0629476564391132E-3</v>
+      </c>
+      <c r="L9" s="10">
+        <f>F9*G9-40</f>
         <v>57.684168316439198</v>
       </c>
-      <c r="L9" s="10">
-        <f>I9*J9-40</f>
+      <c r="M9" s="10">
+        <f>H9*I9-40</f>
         <v>57.426703738152113</v>
       </c>
-      <c r="M9" s="11">
-        <f>ABS((F9-F8)/F9)*100</f>
+      <c r="N9" s="11">
+        <f t="shared" si="2"/>
+        <v>57.555322692811856</v>
+      </c>
+      <c r="O9" s="11">
+        <f>ABS((E9-E8)/E9)*100</f>
         <v>29.032258064516132</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>3</v>
       </c>
@@ -1364,44 +1525,52 @@
       <c r="D10" s="10">
         <v>0.08</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" ref="E10:E17" si="0">C10-D10</f>
-        <v>-1.8000000000000002E-2</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" ref="F10:F17" si="1">(C10+D10)/2</f>
+      <c r="E10" s="18">
+        <f>(C10+D10)/2</f>
         <v>7.1000000000000008E-2</v>
       </c>
+      <c r="F10" s="10">
+        <f xml:space="preserve"> 667.38/C10</f>
+        <v>10764.193548387097</v>
+      </c>
       <c r="G10" s="10">
-        <f t="shared" ref="G10:G17" si="2" xml:space="preserve"> 667.38/C10</f>
-        <v>10764.193548387097</v>
+        <f xml:space="preserve"> 1-EXP(-0.146843*C10)</f>
+        <v>9.0629476564391132E-3</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" ref="H10:H17" si="3" xml:space="preserve"> 1-EXP(-0.146843*C10)</f>
-        <v>9.0629476564391132E-3</v>
+        <f xml:space="preserve"> 667.38/D10</f>
+        <v>8342.25</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" ref="I10:I17" si="4" xml:space="preserve"> 667.38/D10</f>
-        <v>8342.25</v>
+        <f xml:space="preserve"> 1-EXP(-0.146843*D10)</f>
+        <v>1.1678708230771329E-2</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" ref="J10:J17" si="5" xml:space="preserve"> 1-EXP(-0.146843*D10)</f>
-        <v>1.1678708230771329E-2</v>
+        <f t="shared" si="0"/>
+        <v>9399.718309859154</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" ref="K10:K17" si="6">G10*H10-40</f>
+        <f t="shared" si="1"/>
+        <v>1.0371692182271963E-2</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" ref="L10:L17" si="3">F10*G10-40</f>
         <v>57.555322692811856</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" ref="L10:L17" si="7">I10*J10-40</f>
+      <c r="M10" s="10">
+        <f t="shared" ref="M10:M17" si="4">H10*I10-40</f>
         <v>57.426703738152113</v>
       </c>
-      <c r="M10" s="11">
-        <f t="shared" ref="M10:M17" si="8">ABS((F10-F9)/F10)*100</f>
+      <c r="N10" s="11">
+        <f t="shared" si="2"/>
+        <v>57.490984909924819</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" ref="O10:O17" si="5">ABS((E10-E9)/E10)*100</f>
         <v>12.676056338028181</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>4</v>
       </c>
@@ -1411,44 +1580,52 @@
       <c r="D11" s="10">
         <v>0.08</v>
       </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>-8.9999999999999941E-3</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="1"/>
+      <c r="E11" s="18">
+        <f>(C11+D11)/2</f>
         <v>7.5500000000000012E-2</v>
       </c>
+      <c r="F11" s="10">
+        <f xml:space="preserve"> 667.38/C11</f>
+        <v>9399.718309859154</v>
+      </c>
       <c r="G11" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C11)</f>
+        <v>1.0371692182271963E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <f xml:space="preserve"> 667.38/D11</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I11" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D11)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>8839.4701986754953</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1025416123441101E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="3"/>
+        <v>57.490984909924819</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N11" s="11">
         <f t="shared" si="2"/>
-        <v>9399.718309859154</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" si="3"/>
-        <v>1.0371692182271963E-2</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J11" s="10">
+        <v>57.458837251153923</v>
+      </c>
+      <c r="O11" s="11">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="6"/>
-        <v>57.490984909924819</v>
-      </c>
-      <c r="L11" s="10">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="8"/>
         <v>5.9602649006622554</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>5</v>
       </c>
@@ -1458,44 +1635,52 @@
       <c r="D12" s="10">
         <v>0.08</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>-4.4999999999999901E-3</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="1"/>
+      <c r="E12" s="18">
+        <f>(C12+D12)/2</f>
         <v>7.7750000000000014E-2</v>
       </c>
+      <c r="F12" s="10">
+        <f xml:space="preserve"> 667.38/C12</f>
+        <v>8839.4701986754953</v>
+      </c>
       <c r="G12" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C12)</f>
+        <v>1.1025416123441101E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <f xml:space="preserve"> 667.38/D12</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I12" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D12)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>8583.6655948553034</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1352116138502955E-2</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="3"/>
+        <v>57.458837251153923</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N12" s="11">
         <f t="shared" si="2"/>
-        <v>8839.4701986754953</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1025416123441101E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J12" s="10">
+        <v>57.44276872686946</v>
+      </c>
+      <c r="O12" s="11">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K12" s="10">
-        <f t="shared" si="6"/>
-        <v>57.458837251153923</v>
-      </c>
-      <c r="L12" s="10">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="8"/>
         <v>2.8938906752411597</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>6</v>
       </c>
@@ -1505,44 +1690,52 @@
       <c r="D13" s="10">
         <v>0.08</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>-2.2499999999999881E-3</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="1"/>
+      <c r="E13" s="18">
+        <f>(C13+D13)/2</f>
         <v>7.8875000000000001E-2</v>
       </c>
+      <c r="F13" s="10">
+        <f xml:space="preserve"> 667.38/C13</f>
+        <v>8583.6655948553034</v>
+      </c>
       <c r="G13" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C13)</f>
+        <v>1.1352116138502955E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <f xml:space="preserve"> 667.38/D13</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I13" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D13)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>8461.2361331220291</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1515425672757873E-2</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="3"/>
+        <v>57.44276872686946</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>8583.6655948553034</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1352116138502955E-2</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J13" s="10">
+        <v>57.434735790619968</v>
+      </c>
+      <c r="O13" s="11">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K13" s="10">
-        <f t="shared" si="6"/>
-        <v>57.44276872686946</v>
-      </c>
-      <c r="L13" s="10">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="8"/>
         <v>1.4263074484944369</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>7</v>
       </c>
@@ -1552,44 +1745,52 @@
       <c r="D14" s="10">
         <v>0.08</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>-1.125000000000001E-3</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="1"/>
+      <c r="E14" s="18">
+        <f>(C14+D14)/2</f>
         <v>7.9437499999999994E-2</v>
       </c>
+      <c r="F14" s="10">
+        <f xml:space="preserve"> 667.38/C14</f>
+        <v>8461.2361331220291</v>
+      </c>
       <c r="G14" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C14)</f>
+        <v>1.1515425672757873E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <f xml:space="preserve"> 667.38/D14</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I14" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D14)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>8401.3217938631005</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1597070323516201E-2</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="3"/>
+        <v>57.434735790619968</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="2"/>
-        <v>8461.2361331220291</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1515425672757873E-2</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J14" s="10">
+        <v>57.430719653919653</v>
+      </c>
+      <c r="O14" s="11">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K14" s="10">
-        <f t="shared" si="6"/>
-        <v>57.434735790619968</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="8"/>
         <v>0.70810385523209263</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>8</v>
       </c>
@@ -1599,44 +1800,52 @@
       <c r="D15" s="13">
         <v>0.08</v>
       </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>-5.6250000000000744E-4</v>
-      </c>
-      <c r="F15" s="19">
-        <f t="shared" si="1"/>
+      <c r="E15" s="19">
+        <f>(C15+D15)/2</f>
         <v>7.9718750000000005E-2</v>
       </c>
+      <c r="F15" s="13">
+        <f xml:space="preserve"> 667.38/C15</f>
+        <v>8401.3217938631005</v>
+      </c>
       <c r="G15" s="13">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C15)</f>
+        <v>1.1597070323516201E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <f xml:space="preserve"> 667.38/D15</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I15" s="13">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D15)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>8371.6816934535473</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1637890120046901E-2</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>57.430719653919653</v>
+      </c>
+      <c r="M15" s="13">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N15" s="14">
         <f t="shared" si="2"/>
-        <v>8401.3217938631005</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1597070323516201E-2</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J15" s="13">
+        <v>57.428711668420547</v>
+      </c>
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K15" s="13">
-        <f t="shared" si="6"/>
-        <v>57.430719653919653</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="8"/>
         <v>0.3528028224225927</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>9</v>
       </c>
@@ -1646,44 +1855,52 @@
       <c r="D16" s="10">
         <v>0.08</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>-2.8124999999999678E-4</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="1"/>
+      <c r="E16" s="18">
+        <f>(C16+D16)/2</f>
         <v>7.985937500000001E-2</v>
       </c>
+      <c r="F16" s="10">
+        <f xml:space="preserve"> 667.38/C16</f>
+        <v>8371.6816934535473</v>
+      </c>
       <c r="G16" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C16)</f>
+        <v>1.1637890120046901E-2</v>
+      </c>
+      <c r="H16" s="10">
+        <f xml:space="preserve"> 667.38/D16</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I16" s="10">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D16)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>8356.9399334768132</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="1"/>
+        <v>1.16582993861305E-2</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="3"/>
+        <v>57.428711668420547</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N16" s="11">
         <f t="shared" si="2"/>
-        <v>8371.6816934535473</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="3"/>
-        <v>1.1637890120046901E-2</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J16" s="10">
+        <v>57.427707696382186</v>
+      </c>
+      <c r="O16" s="11">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K16" s="10">
-        <f t="shared" si="6"/>
-        <v>57.428711668420547</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="8"/>
         <v>0.17609078458228017</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -1693,40 +1910,48 @@
       <c r="D17" s="16">
         <v>0.08</v>
       </c>
-      <c r="E17" s="16">
-        <f t="shared" si="0"/>
-        <v>-1.4062499999999145E-4</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="1"/>
+      <c r="E17" s="20">
+        <f>(C17+D17)/2</f>
         <v>7.9929687500000013E-2</v>
       </c>
+      <c r="F17" s="16">
+        <f xml:space="preserve"> 667.38/C17</f>
+        <v>8356.9399334768132</v>
+      </c>
       <c r="G17" s="16">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C17)</f>
+        <v>1.16582993861305E-2</v>
+      </c>
+      <c r="H17" s="16">
+        <f xml:space="preserve"> 667.38/D17</f>
+        <v>8342.25</v>
+      </c>
+      <c r="I17" s="16">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D17)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="0"/>
+        <v>8349.5885055224298</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="1"/>
+        <v>1.1668503861130719E-2</v>
+      </c>
+      <c r="L17" s="16">
+        <f t="shared" si="3"/>
+        <v>57.427707696382186</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="4"/>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="N17" s="17">
         <f t="shared" si="2"/>
-        <v>8356.9399334768132</v>
-      </c>
-      <c r="H17" s="16">
-        <f t="shared" si="3"/>
-        <v>1.16582993861305E-2</v>
-      </c>
-      <c r="I17" s="16">
-        <f t="shared" si="4"/>
-        <v>8342.25</v>
-      </c>
-      <c r="J17" s="16">
+        <v>57.427205715541149</v>
+      </c>
+      <c r="O17" s="17">
         <f t="shared" si="5"/>
-        <v>1.1678708230771329E-2</v>
-      </c>
-      <c r="K17" s="16">
-        <f t="shared" si="6"/>
-        <v>57.427707696382186</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="7"/>
-        <v>57.426703738152113</v>
-      </c>
-      <c r="M17" s="17">
-        <f t="shared" si="8"/>
         <v>8.7967940572772352E-2</v>
       </c>
     </row>
@@ -1739,12 +1964,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4128C6-326D-4C1A-AF1C-44CDA4E8163E}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,16 +1979,16 @@
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="10" max="12" width="21.140625" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1791,17 +2016,26 @@
       <c r="J9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -1816,7 +2050,7 @@
         <v>-7.2000000000000008E-2</v>
       </c>
       <c r="F10" s="2">
-        <f>D10-((L10*E10)/(K10-L10))</f>
+        <f>D10-((N10*E10)/(M10-N10))</f>
         <v>8.0955506574939911</v>
       </c>
       <c r="G10" s="2">
@@ -1836,18 +2070,30 @@
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="K10" s="2">
+        <f xml:space="preserve"> 667.38/F10</f>
+        <v>82.437875845074387</v>
+      </c>
+      <c r="L10" s="2">
+        <f xml:space="preserve"> 1-EXP(-0.146843*F10)</f>
+        <v>0.69540581983831096</v>
+      </c>
+      <c r="M10" s="2">
         <f>G10*H10-40</f>
         <v>57.942541370003553</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <f>I10*J10-40</f>
         <v>57.426703738152113</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2">
+        <f>K10*L10-40</f>
+        <v>17.327778637772845</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2</v>
       </c>
@@ -1862,7 +2108,7 @@
         <v>8.015550657493991</v>
       </c>
       <c r="F11" s="2">
-        <f>D11-((L11*E11)/(K11-L11))</f>
+        <f>D11-((N11*E11)/(M11-N11))</f>
         <v>11.55927660788354</v>
       </c>
       <c r="G11" s="2">
@@ -1882,19 +2128,31 @@
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" ref="K11:K15" si="0" xml:space="preserve"> 667.38/F11</f>
+        <v>57.735446831062106</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11:L15" si="1" xml:space="preserve"> 1-EXP(-0.146843*F11)</f>
+        <v>0.81684067104905944</v>
+      </c>
+      <c r="M11" s="2">
         <f>G11*H11-40</f>
         <v>17.327778637772845</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <f>I11*J11-40</f>
         <v>57.426703738152113</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
+        <f t="shared" ref="O11:O14" si="2">K11*L11-40</f>
+        <v>7.160661132802062</v>
+      </c>
+      <c r="P11" s="2">
         <f>ABS((F11-F10)/F11)*100</f>
         <v>29.964902371375501</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>3</v>
       </c>
@@ -1905,43 +2163,55 @@
         <v>11.55927660788354</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E15" si="0">C12-D12</f>
+        <f t="shared" ref="E12:E15" si="3">C12-D12</f>
         <v>-3.4637259503895486</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F15" si="1">D12-((L12*E12)/(K12-L12))</f>
+        <f t="shared" ref="F12:F15" si="4">D12-((N12*E12)/(M12-N12))</f>
         <v>13.998765260936498</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:G15" si="2" xml:space="preserve"> 667.38/C12</f>
+        <f t="shared" ref="G12:G15" si="5" xml:space="preserve"> 667.38/C12</f>
         <v>82.437875845074387</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12:H15" si="3" xml:space="preserve"> 1-EXP(-0.146843*C12)</f>
+        <f t="shared" ref="H12:H15" si="6" xml:space="preserve"> 1-EXP(-0.146843*C12)</f>
         <v>0.69540581983831096</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:I15" si="4" xml:space="preserve"> 667.38/D12</f>
+        <f t="shared" ref="I12:I15" si="7" xml:space="preserve"> 667.38/D12</f>
         <v>57.735446831062106</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J15" si="5" xml:space="preserve"> 1-EXP(-0.146843*D12)</f>
+        <f t="shared" ref="J12:J15" si="8" xml:space="preserve"> 1-EXP(-0.146843*D12)</f>
         <v>0.81684067104905944</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ref="K12:K15" si="6">G12*H12-40</f>
+        <f t="shared" si="0"/>
+        <v>47.674204657343701</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87198664533847536</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12:M15" si="9">G12*H12-40</f>
         <v>17.327778637772845</v>
       </c>
-      <c r="L12" s="2">
-        <f t="shared" ref="L12:L15" si="7">I12*J12-40</f>
+      <c r="N12" s="2">
+        <f t="shared" ref="N12:N15" si="10">I12*J12-40</f>
         <v>7.160661132802062</v>
       </c>
-      <c r="M12" s="2">
-        <f t="shared" ref="M12:M15" si="8">ABS((F12-F11)/F12)*100</f>
+      <c r="O12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5712697883370552</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12:P15" si="11">ABS((F12-F11)/F12)*100</f>
         <v>17.426455887937074</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>4</v>
       </c>
@@ -1952,43 +2222,55 @@
         <v>11.55927660788354</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.4394886530529583</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.684545622930466</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="5"/>
+        <v>47.674204657343701</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.87198664533847536</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>57.735446831062106</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="8"/>
+        <v>0.81684067104905944</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>45.447780076889899</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88425001700276917</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5712697883370552</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="10"/>
+        <v>7.160661132802062</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="2"/>
-        <v>47.674204657343701</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87198664533847536</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="4"/>
-        <v>57.735446831062106</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="5"/>
-        <v>0.81684067104905944</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5712697883370552</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="7"/>
-        <v>7.160661132802062</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="8"/>
+        <v>0.18720030572800539</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="11"/>
         <v>4.6700822729107578</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>5</v>
       </c>
@@ -1999,43 +2281,55 @@
         <v>14.684545622930466</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-0.68578036199396841</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.777299848813355</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="5"/>
+        <v>47.674204657343701</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.87198664533847536</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
+        <v>45.447780076889899</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.88425001700276917</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>45.162513235027298</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88581587954091245</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5712697883370552</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="10"/>
+        <v>0.18720030572800539</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="2"/>
-        <v>47.674204657343701</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87198664533847536</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="4"/>
-        <v>45.447780076889899</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="5"/>
-        <v>0.88425001700276917</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5712697883370552</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="7"/>
-        <v>0.18720030572800539</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="8"/>
+        <v>5.6713835638078081E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="11"/>
         <v>0.62768047499785262</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>6</v>
       </c>
@@ -2046,39 +2340,51 @@
         <v>14.684545622930466</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.2754225882888619E-2</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14.780197705451704</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45.162513235027298</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.88581587954091245</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45.447780076889899</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.88425001700276917</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
+        <v>45.153658516613454</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88586445796887048</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="9"/>
         <v>5.6713835638078081E-3</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="7"/>
+      <c r="N15" s="3">
+        <f t="shared" si="10"/>
         <v>0.18720030572800539</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" si="8"/>
+      <c r="O15" s="3">
+        <f>K15*L15-40</f>
+        <v>2.1227131249190734E-5</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="11"/>
         <v>1.960634557195232E-2</v>
       </c>
     </row>
@@ -2088,12 +2394,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5508DB-C1B0-4529-9F10-3C257FC3BE94}">
   <dimension ref="B2:U28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SEMESTER 1/METODE KOMPUTASI/Tugas 1-Metode Komputasi-Tobias Mikha S.xlsx
+++ b/SEMESTER 1/METODE KOMPUTASI/Tugas 1-Metode Komputasi-Tobias Mikha S.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S2-Pascasarjana\SEMESTER 1\METODE KOMPUTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2FB1FD-58BC-4828-B5C2-5F7C2FC5EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9410BE1-01A6-4072-89C8-B769CC2D44EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6657444D-609B-4AE6-9913-8E06838AEC8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6657444D-609B-4AE6-9913-8E06838AEC8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="5" r:id="rId1"/>
     <sheet name="Bisection Methode" sheetId="2" r:id="rId2"/>
-    <sheet name="False Posistion" sheetId="1" r:id="rId3"/>
-    <sheet name="Newthon Raphson" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
+    <sheet name="False Posistion" sheetId="1" r:id="rId5"/>
+    <sheet name="Newthon Raphson" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Bracketing Methode Using Bisection method</t>
   </si>
@@ -114,6 +116,24 @@
   </si>
   <si>
     <t>TOBIAS MIKHA SULISTIYO - 202400090001</t>
+  </si>
+  <si>
+    <t>1/root(xl)</t>
+  </si>
+  <si>
+    <t>1/root(xu)</t>
+  </si>
+  <si>
+    <t>1/root(xr)</t>
+  </si>
+  <si>
+    <t>log(xl)</t>
+  </si>
+  <si>
+    <t>log(xu)</t>
+  </si>
+  <si>
+    <t>log(xr)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -329,11 +349,327 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -736,6 +1072,148 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>108089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638807</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89FCFE7-B16E-BB35-5149-7A146F18BA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="489089"/>
+          <a:ext cx="3629532" cy="581106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>606190</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56261</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC71BB7-4BEA-4096-BE5F-3F15311E2EF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6054490" y="391987"/>
+          <a:ext cx="2726671" cy="857370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180521</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85414A80-4B14-8491-642F-281E03DE0E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="600075"/>
+          <a:ext cx="3628571" cy="580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>541667</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -825,7 +1303,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -963,43 +1441,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}" name="Table1" displayName="Table1" ref="B7:O17" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}" name="Table1" displayName="Table1" ref="B7:O17" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="B7:O17" xr:uid="{83CAD5AF-7703-433D-B815-DEFCDF4C4C4D}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{BC69F195-AC58-4B23-A62C-922368062220}" name="i" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7CC36258-545D-47AC-A452-CDB701EFA973}" name="xl" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3BA4263D-B6C7-4626-AD9F-8A368D275840}" name="xu" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{D9D59088-0D9F-41F2-B2CA-184272B8E34F}" name="xr" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{BC69F195-AC58-4B23-A62C-922368062220}" name="i" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{7CC36258-545D-47AC-A452-CDB701EFA973}" name="xl" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{3BA4263D-B6C7-4626-AD9F-8A368D275840}" name="xu" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D9D59088-0D9F-41F2-B2CA-184272B8E34F}" name="xr" dataDxfId="29">
       <calculatedColumnFormula>(C8+D8)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F4208EA9-EFD3-42F4-9AFE-9E9FE6A9D7D9}" name="667.38/xl" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{F4208EA9-EFD3-42F4-9AFE-9E9FE6A9D7D9}" name="667.38/xl" dataDxfId="28">
       <calculatedColumnFormula xml:space="preserve"> 667.38/C8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4F2D4131-5E54-4322-A760-27D95B868261}" name="1-e^-0,146843.xl" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{4F2D4131-5E54-4322-A760-27D95B868261}" name="1-e^-0,146843.xl" dataDxfId="27">
       <calculatedColumnFormula xml:space="preserve"> 1-EXP(-0.146843*C8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DB6FC6C-38EE-4568-B86E-E64A181EBB26}" name="667.38/xu" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{9DB6FC6C-38EE-4568-B86E-E64A181EBB26}" name="667.38/xu" dataDxfId="26">
       <calculatedColumnFormula xml:space="preserve"> 667.38/D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{9DD6B4F6-866B-4DE7-A9C3-78FABC8B01A8}" name="1-e^-0,146843.xu" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{9DD6B4F6-866B-4DE7-A9C3-78FABC8B01A8}" name="1-e^-0,146843.xu" dataDxfId="25">
       <calculatedColumnFormula xml:space="preserve"> 1-EXP(-0.146843*D8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C1E42285-0994-4278-ACE3-91841F1E13F3}" name="667.38/xr" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{C1E42285-0994-4278-ACE3-91841F1E13F3}" name="667.38/xr" dataDxfId="24">
       <calculatedColumnFormula xml:space="preserve"> 667.38/E8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A5941068-4CB7-4398-864A-CE4F5206F45E}" name="1-e^-0,146843.xr" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{A5941068-4CB7-4398-864A-CE4F5206F45E}" name="1-e^-0,146843.xr" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> 1-EXP(-0.146843*E8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F49D8CF5-6895-41B2-BC1C-8C71699D2263}" name="f(xl)" dataDxfId="3">
+    <tableColumn id="10" xr3:uid="{F49D8CF5-6895-41B2-BC1C-8C71699D2263}" name="f(xl)" dataDxfId="22">
       <calculatedColumnFormula>F8*G8-40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{1F20747E-AF3A-4473-9892-98A0FB31B9E0}" name="f(xu)" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{1F20747E-AF3A-4473-9892-98A0FB31B9E0}" name="f(xu)" dataDxfId="21">
       <calculatedColumnFormula>H8*I8-40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7EDA6EBE-A196-44AD-B325-F2DF4A1AC33F}" name="f(xr)" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{7EDA6EBE-A196-44AD-B325-F2DF4A1AC33F}" name="f(xr)" dataDxfId="20">
       <calculatedColumnFormula>J8*K8-40</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{91570E41-F327-41B0-8F04-1FA2B762FDDE}" name="er(%)" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{91570E41-F327-41B0-8F04-1FA2B762FDDE}" name="er(%)" dataDxfId="19">
+      <calculatedColumnFormula>ABS((E8-E7)/E8)*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6213F87F-5FB3-4602-B3D9-6C32BC14937E}" name="Table13" displayName="Table13" ref="B7:O40" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="B7:O40" xr:uid="{6213F87F-5FB3-4602-B3D9-6C32BC14937E}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{80FDA539-C671-485F-A6B8-78C98C3CA2EB}" name="i" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7596C36E-499F-4E16-8DAE-D8B23741B30D}" name="xl" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9B4272C7-0C51-4F9E-835D-E658F883B284}" name="xu" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C504F16D-6DFB-4D1F-AB23-A6A31B637CC0}" name="xr" dataDxfId="10">
+      <calculatedColumnFormula>(C8+D8)/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3355C1D3-610D-4EDB-8B55-A7A0B5181475}" name="1/root(xl)" dataDxfId="8">
+      <calculatedColumnFormula>1/SQRT(Table13[[#This Row],[xl]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3BBC364F-8AC5-4D33-B009-D7A25B241EEA}" name="1-e^-0,146843.xl" dataDxfId="0">
+      <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*F8))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{0446DF5A-0FA0-4BAD-A819-B08DC4ED9C2C}" name="1/root(xu)" dataDxfId="7">
+      <calculatedColumnFormula>1/SQRT(Table13[[#This Row],[xu]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9767DC1C-F47A-4449-B8F0-7F32A94E314E}" name="1-e^-0,146843.xu" dataDxfId="5">
+      <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*H8))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{E4AE7522-0872-448F-BAE7-1C1C0137D68C}" name="1/root(xr)" dataDxfId="6">
+      <calculatedColumnFormula>1/SQRT(Table13[[#This Row],[xr]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{E11B4A79-38A2-4269-BE77-F26A8F5C1E22}" name="1-e^-0,146843.xr" dataDxfId="4">
+      <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13.743*J8))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{7FF87086-97A8-45B3-9159-0094C50AE797}" name="f(xl)" dataDxfId="1">
+      <calculatedColumnFormula>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{B19300B4-92A7-4B7E-8A04-983489C5330D}" name="f(xu)" dataDxfId="3">
+      <calculatedColumnFormula>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{05D13CBF-A899-407D-B2E7-42FF8642849C}" name="f(xr)" dataDxfId="2">
+      <calculatedColumnFormula>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C85A30E1-883E-4C6D-A1E0-47AB634D79C2}" name="er(%)" dataDxfId="9">
       <calculatedColumnFormula>ABS((E8-E7)/E8)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1306,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD839E-7E43-48A8-866D-F74D29177295}">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1332,9 +1855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27C5523C-A026-4C79-8E15-824A62390A11}">
   <dimension ref="B2:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,31 +1940,31 @@
         <v>0.08</v>
       </c>
       <c r="E8" s="18">
-        <f>(C8+D8)/2</f>
+        <f t="shared" ref="E8:E17" si="0">(C8+D8)/2</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F8" s="10">
-        <f xml:space="preserve"> 667.38/C8</f>
+        <f t="shared" ref="F8:F17" si="1" xml:space="preserve"> 667.38/C8</f>
         <v>83422.5</v>
       </c>
       <c r="G8" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C8)</f>
+        <f t="shared" ref="G8:G17" si="2" xml:space="preserve"> 1-EXP(-0.146843*C8)</f>
         <v>1.1740542583835722E-3</v>
       </c>
       <c r="H8" s="10">
-        <f xml:space="preserve"> 667.38/D8</f>
+        <f t="shared" ref="H8:H17" si="3" xml:space="preserve"> 667.38/D8</f>
         <v>8342.25</v>
       </c>
       <c r="I8" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D8)</f>
+        <f t="shared" ref="I8:I17" si="4" xml:space="preserve"> 1-EXP(-0.146843*D8)</f>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J8" s="10">
-        <f t="shared" ref="J8:J17" si="0" xml:space="preserve"> 667.38/E8</f>
+        <f t="shared" ref="J8:J17" si="5" xml:space="preserve"> 667.38/E8</f>
         <v>15167.727272727274</v>
       </c>
       <c r="K8" s="10">
-        <f t="shared" ref="K8:K17" si="1" xml:space="preserve"> 1-EXP(-0.146843*E8)</f>
+        <f t="shared" ref="K8:K17" si="6" xml:space="preserve"> 1-EXP(-0.146843*E8)</f>
         <v>6.440264026376763E-3</v>
       </c>
       <c r="L8" s="10">
@@ -1453,7 +1976,7 @@
         <v>57.426703738152113</v>
       </c>
       <c r="N8" s="10">
-        <f t="shared" ref="N8:N17" si="2">J8*K8-40</f>
+        <f t="shared" ref="N8:N17" si="7">J8*K8-40</f>
         <v>57.684168316439198</v>
       </c>
       <c r="O8" s="11" t="s">
@@ -1471,31 +1994,31 @@
         <v>0.08</v>
       </c>
       <c r="E9" s="18">
-        <f>(C9+D9)/2</f>
+        <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
       <c r="F9" s="10">
-        <f xml:space="preserve"> 667.38/C9</f>
+        <f t="shared" si="1"/>
         <v>15167.727272727274</v>
       </c>
       <c r="G9" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C9)</f>
+        <f t="shared" si="2"/>
         <v>6.440264026376763E-3</v>
       </c>
       <c r="H9" s="10">
-        <f xml:space="preserve"> 667.38/D9</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I9" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D9)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10764.193548387097</v>
       </c>
       <c r="K9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>9.0629476564391132E-3</v>
       </c>
       <c r="L9" s="10">
@@ -1507,7 +2030,7 @@
         <v>57.426703738152113</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.555322692811856</v>
       </c>
       <c r="O9" s="11">
@@ -1526,47 +2049,47 @@
         <v>0.08</v>
       </c>
       <c r="E10" s="18">
-        <f>(C10+D10)/2</f>
+        <f t="shared" si="0"/>
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="F10" s="10">
-        <f xml:space="preserve"> 667.38/C10</f>
+        <f t="shared" si="1"/>
         <v>10764.193548387097</v>
       </c>
       <c r="G10" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C10)</f>
+        <f t="shared" si="2"/>
         <v>9.0629476564391132E-3</v>
       </c>
       <c r="H10" s="10">
-        <f xml:space="preserve"> 667.38/D10</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I10" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D10)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9399.718309859154</v>
       </c>
       <c r="K10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.0371692182271963E-2</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" ref="L10:L17" si="3">F10*G10-40</f>
+        <f t="shared" ref="L10:L17" si="8">F10*G10-40</f>
         <v>57.555322692811856</v>
       </c>
       <c r="M10" s="10">
-        <f t="shared" ref="M10:M17" si="4">H10*I10-40</f>
+        <f t="shared" ref="M10:M17" si="9">H10*I10-40</f>
         <v>57.426703738152113</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.490984909924819</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" ref="O10:O17" si="5">ABS((E10-E9)/E10)*100</f>
+        <f t="shared" ref="O10:O17" si="10">ABS((E10-E9)/E10)*100</f>
         <v>12.676056338028181</v>
       </c>
     </row>
@@ -1581,47 +2104,47 @@
         <v>0.08</v>
       </c>
       <c r="E11" s="18">
-        <f>(C11+D11)/2</f>
+        <f t="shared" si="0"/>
         <v>7.5500000000000012E-2</v>
       </c>
       <c r="F11" s="10">
-        <f xml:space="preserve"> 667.38/C11</f>
+        <f t="shared" si="1"/>
         <v>9399.718309859154</v>
       </c>
       <c r="G11" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C11)</f>
+        <f t="shared" si="2"/>
         <v>1.0371692182271963E-2</v>
       </c>
       <c r="H11" s="10">
-        <f xml:space="preserve"> 667.38/D11</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I11" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D11)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8839.4701986754953</v>
       </c>
       <c r="K11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1025416123441101E-2</v>
       </c>
       <c r="L11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.490984909924819</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.458837251153923</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5.9602649006622554</v>
       </c>
     </row>
@@ -1636,47 +2159,47 @@
         <v>0.08</v>
       </c>
       <c r="E12" s="18">
-        <f>(C12+D12)/2</f>
+        <f t="shared" si="0"/>
         <v>7.7750000000000014E-2</v>
       </c>
       <c r="F12" s="10">
-        <f xml:space="preserve"> 667.38/C12</f>
+        <f t="shared" si="1"/>
         <v>8839.4701986754953</v>
       </c>
       <c r="G12" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C12)</f>
+        <f t="shared" si="2"/>
         <v>1.1025416123441101E-2</v>
       </c>
       <c r="H12" s="10">
-        <f xml:space="preserve"> 667.38/D12</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I12" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D12)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8583.6655948553034</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1352116138502955E-2</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.458837251153923</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.44276872686946</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.8938906752411597</v>
       </c>
     </row>
@@ -1691,47 +2214,47 @@
         <v>0.08</v>
       </c>
       <c r="E13" s="18">
-        <f>(C13+D13)/2</f>
+        <f t="shared" si="0"/>
         <v>7.8875000000000001E-2</v>
       </c>
       <c r="F13" s="10">
-        <f xml:space="preserve"> 667.38/C13</f>
+        <f t="shared" si="1"/>
         <v>8583.6655948553034</v>
       </c>
       <c r="G13" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C13)</f>
+        <f t="shared" si="2"/>
         <v>1.1352116138502955E-2</v>
       </c>
       <c r="H13" s="10">
-        <f xml:space="preserve"> 667.38/D13</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I13" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D13)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8461.2361331220291</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1515425672757873E-2</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.44276872686946</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.434735790619968</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1.4263074484944369</v>
       </c>
     </row>
@@ -1746,47 +2269,47 @@
         <v>0.08</v>
       </c>
       <c r="E14" s="18">
-        <f>(C14+D14)/2</f>
+        <f t="shared" si="0"/>
         <v>7.9437499999999994E-2</v>
       </c>
       <c r="F14" s="10">
-        <f xml:space="preserve"> 667.38/C14</f>
+        <f t="shared" si="1"/>
         <v>8461.2361331220291</v>
       </c>
       <c r="G14" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C14)</f>
+        <f t="shared" si="2"/>
         <v>1.1515425672757873E-2</v>
       </c>
       <c r="H14" s="10">
-        <f xml:space="preserve"> 667.38/D14</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I14" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D14)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J14" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8401.3217938631005</v>
       </c>
       <c r="K14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1597070323516201E-2</v>
       </c>
       <c r="L14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.434735790619968</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.430719653919653</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.70810385523209263</v>
       </c>
     </row>
@@ -1801,47 +2324,47 @@
         <v>0.08</v>
       </c>
       <c r="E15" s="19">
-        <f>(C15+D15)/2</f>
+        <f t="shared" si="0"/>
         <v>7.9718750000000005E-2</v>
       </c>
       <c r="F15" s="13">
-        <f xml:space="preserve"> 667.38/C15</f>
+        <f t="shared" si="1"/>
         <v>8401.3217938631005</v>
       </c>
       <c r="G15" s="13">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C15)</f>
+        <f t="shared" si="2"/>
         <v>1.1597070323516201E-2</v>
       </c>
       <c r="H15" s="13">
-        <f xml:space="preserve"> 667.38/D15</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I15" s="13">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D15)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8371.6816934535473</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1637890120046901E-2</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.430719653919653</v>
       </c>
       <c r="M15" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.428711668420547</v>
       </c>
       <c r="O15" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.3528028224225927</v>
       </c>
     </row>
@@ -1856,47 +2379,47 @@
         <v>0.08</v>
       </c>
       <c r="E16" s="18">
-        <f>(C16+D16)/2</f>
+        <f t="shared" si="0"/>
         <v>7.985937500000001E-2</v>
       </c>
       <c r="F16" s="10">
-        <f xml:space="preserve"> 667.38/C16</f>
+        <f t="shared" si="1"/>
         <v>8371.6816934535473</v>
       </c>
       <c r="G16" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C16)</f>
+        <f t="shared" si="2"/>
         <v>1.1637890120046901E-2</v>
       </c>
       <c r="H16" s="10">
-        <f xml:space="preserve"> 667.38/D16</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I16" s="10">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D16)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8356.9399334768132</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.16582993861305E-2</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.428711668420547</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.427707696382186</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0.17609078458228017</v>
       </c>
     </row>
@@ -1911,47 +2434,47 @@
         <v>0.08</v>
       </c>
       <c r="E17" s="20">
-        <f>(C17+D17)/2</f>
+        <f t="shared" si="0"/>
         <v>7.9929687500000013E-2</v>
       </c>
       <c r="F17" s="16">
-        <f xml:space="preserve"> 667.38/C17</f>
+        <f t="shared" si="1"/>
         <v>8356.9399334768132</v>
       </c>
       <c r="G17" s="16">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C17)</f>
+        <f t="shared" si="2"/>
         <v>1.16582993861305E-2</v>
       </c>
       <c r="H17" s="16">
-        <f xml:space="preserve"> 667.38/D17</f>
+        <f t="shared" si="3"/>
         <v>8342.25</v>
       </c>
       <c r="I17" s="16">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D17)</f>
+        <f t="shared" si="4"/>
         <v>1.1678708230771329E-2</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8349.5885055224298</v>
       </c>
       <c r="K17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1.1668503861130719E-2</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>57.427707696382186</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>57.426703738152113</v>
       </c>
       <c r="N17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.427205715541149</v>
       </c>
       <c r="O17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.7967940572772352E-2</v>
       </c>
     </row>
@@ -1965,11 +2488,1895 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4128C6-326D-4C1A-AF1C-44CDA4E8163E}">
-  <dimension ref="B2:P15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF341C7-F17F-4238-A54A-335BA5B65693}">
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="11" width="18" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f>0.0000015/3.7*0.005</f>
+        <v>2.0270270270270272E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" ref="E8:E17" si="0">(C8+D8)/2</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F8" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" ref="G8:G40" si="1">2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*F8))</f>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="H8" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:I40" si="2">2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*H8))</f>
+        <v>-6.3799029103927758</v>
+      </c>
+      <c r="J8" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>4.7673129462279613</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L8" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="M8" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-2.844369004460038</v>
+      </c>
+      <c r="N8" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>4.8113129462279609</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="H9" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>4.7673129462279613</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.1202663043929055</v>
+      </c>
+      <c r="J9" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>6.2017367294604222</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" ref="K8:K40" si="3">2*LOG((0.0000015/3.7*(0.005))+(2.51/13.743*J9))</f>
+        <v>0.10821100355418584</v>
+      </c>
+      <c r="L9" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="M9" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.3529533581649442</v>
+      </c>
+      <c r="N9" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>0.3099492858786892</v>
+      </c>
+      <c r="O9" s="11">
+        <f>ABS((E9-E8)/E9)*100</f>
+        <v>69.230769230769226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>6.2017367294604222</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.891787443581733</v>
+      </c>
+      <c r="H10" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>4.7673129462279613</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.1202663043929055</v>
+      </c>
+      <c r="J10" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.3452248382484884</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="3"/>
+        <v>-2.0883692576193394E-2</v>
+      </c>
+      <c r="L10" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>0.3099492858786892</v>
+      </c>
+      <c r="M10" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.3529533581649442</v>
+      </c>
+      <c r="N10" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-0.67565705263495701</v>
+      </c>
+      <c r="O10" s="11">
+        <f t="shared" ref="O10:O17" si="4">ABS((E10-E9)/E10)*100</f>
+        <v>25.714285714285712</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7.1000000000000008E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F11" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>6.2017367294604222</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.891787443581733</v>
+      </c>
+      <c r="H11" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.3452248382484884</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="2"/>
+        <v>-6.0208818908834454</v>
+      </c>
+      <c r="J11" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.7259833431386822</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8884512307369813E-2</v>
+      </c>
+      <c r="L11" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>0.3099492858786892</v>
+      </c>
+      <c r="M11" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-0.67565705263495701</v>
+      </c>
+      <c r="N11" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-0.23513046266755122</v>
+      </c>
+      <c r="O11" s="11">
+        <f t="shared" si="4"/>
+        <v>14.754098360655728</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7.5500000000000012E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>2.8249999999999997E-2</v>
+      </c>
+      <c r="F12" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>6.2017367294604222</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.891787443581733</v>
+      </c>
+      <c r="H12" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.7259833431386822</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.9611138058062334</v>
+      </c>
+      <c r="J12" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9496411730872962</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="3"/>
+        <v>7.216589943540988E-2</v>
+      </c>
+      <c r="L12" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>0.3099492858786892</v>
+      </c>
+      <c r="M12" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-0.23513046266755122</v>
+      </c>
+      <c r="N12" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.1808691183993645E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="4"/>
+        <v>7.9646017699115124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>7.7750000000000014E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>2.9374999999999998E-2</v>
+      </c>
+      <c r="F13" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9496411730872962</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.9278324819033026</v>
+      </c>
+      <c r="H13" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.7259833431386822</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.9611138058062334</v>
+      </c>
+      <c r="J13" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.8345996599157823</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="3"/>
+        <v>5.5206476343021831E-2</v>
+      </c>
+      <c r="L13" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>2.1808691183993645E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-0.23513046266755122</v>
+      </c>
+      <c r="N13" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-0.11019221316459671</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="4"/>
+        <v>3.8297872340425565</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
+        <v>7.8875000000000001E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>2.8812499999999998E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9496411730872962</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.9278324819033026</v>
+      </c>
+      <c r="H14" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.8345996599157823</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.944791873080379</v>
+      </c>
+      <c r="J14" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.8912781593988575</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="3"/>
+        <v>6.3603408873195585E-2</v>
+      </c>
+      <c r="L14" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>2.1808691183993645E-2</v>
+      </c>
+      <c r="M14" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-0.11019221316459671</v>
+      </c>
+      <c r="N14" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-4.5116797031113265E-2</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="4"/>
+        <v>1.952277657266813</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13">
+        <v>7.9437499999999994E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>2.8531249999999998E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9496411730872962</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.9278324819033026</v>
+      </c>
+      <c r="H15" s="13">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.8912781593988575</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="2"/>
+        <v>-5.9363949564299707</v>
+      </c>
+      <c r="J15" s="13">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="3"/>
+        <v>6.7863552384519618E-2</v>
+      </c>
+      <c r="L15" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>2.1808691183993645E-2</v>
+      </c>
+      <c r="M15" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-4.5116797031113265E-2</v>
+      </c>
+      <c r="N15" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="4"/>
+        <v>0.98576122672508304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10">
+        <v>7.9718750000000005E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>2.8390624999999996E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9496411730872962</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.9278324819033026</v>
+      </c>
+      <c r="H16" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J16" s="10">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="3"/>
+        <v>7.0009398270747814E-2</v>
+      </c>
+      <c r="L16" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>2.1808691183993645E-2</v>
+      </c>
+      <c r="M16" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N16" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="4"/>
+        <v>0.49532195927353445</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16">
+        <v>7.985937500000001E-2</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H17" s="16">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J17" s="16">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L17" s="10">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M17" s="10">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N17" s="10">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O17" s="17">
+        <f t="shared" si="4"/>
+        <v>0.24704913532803571</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10">
+        <v>7.9929687500000013E-2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" ref="E18:E19" si="5">(C18+D18)/2</f>
+        <v>2.8425781249999997E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H18" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9310632253039781</v>
+      </c>
+      <c r="J18" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9312167505804707</v>
+      </c>
+      <c r="K18" s="22">
+        <f t="shared" si="3"/>
+        <v>6.9471941986298094E-2</v>
+      </c>
+      <c r="L18" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M18" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="N18" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>6.9031625617732573E-4</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" ref="O18:O19" si="6">ABS((E18-E17)/E18)*100</f>
+        <v>0.12367733956301144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
+        <v>12</v>
+      </c>
+      <c r="C19" s="16">
+        <v>7.9964843750000014E-2</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="5"/>
+        <v>2.8443359374999998E-2</v>
+      </c>
+      <c r="F19" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9312167505804707</v>
+      </c>
+      <c r="G19" s="24">
+        <f t="shared" si="1"/>
+        <v>-5.9305264343242934</v>
+      </c>
+      <c r="H19" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="2"/>
+        <v>-5.9310632253039781</v>
+      </c>
+      <c r="J19" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9293837079133676</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" si="3"/>
+        <v>6.9203463059602885E-2</v>
+      </c>
+      <c r="L19" s="24">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>6.9031625617732573E-4</v>
+      </c>
+      <c r="M19" s="24">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="N19" s="25">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-1.4112048356658136E-3</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" si="6"/>
+        <v>6.1800453203325841E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
+        <v>7.9982421875000015E-2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ref="E20:E37" si="7">(C20+D20)/2</f>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H20" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J20" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L20" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M20" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N20" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" ref="O20:O37" si="8">ABS((E20-E19)/E20)*100</f>
+        <v>6.1762283832008928E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10">
+        <v>7.9991210937500001E-2</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F21" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H21" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J21" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K21" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L21" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M21" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N21" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10">
+        <v>7.9995605468750008E-2</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H22" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J22" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K22" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L22" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M22" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N22" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="15">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10">
+        <v>7.9997802734375012E-2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F23" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H23" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J23" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K23" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L23" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M23" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N23" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>17</v>
+      </c>
+      <c r="C24" s="10">
+        <v>7.9998901367187514E-2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F24" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H24" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I24" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J24" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K24" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L24" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M24" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N24" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>18</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7.9999450683593765E-2</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F25" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H25" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J25" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K25" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L25" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M25" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N25" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="15">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10">
+        <v>7.999972534179689E-2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F26" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H26" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I26" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J26" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K26" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L26" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M26" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N26" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>20</v>
+      </c>
+      <c r="C27" s="10">
+        <v>7.9999862670898453E-2</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F27" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H27" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I27" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J27" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L27" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M27" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N27" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>21</v>
+      </c>
+      <c r="C28" s="10">
+        <v>7.999993133544922E-2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F28" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H28" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I28" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J28" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K28" s="22">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L28" s="22">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M28" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N28" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="26">
+        <v>22</v>
+      </c>
+      <c r="C29" s="13">
+        <v>7.9999965667724604E-2</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="7"/>
+        <v>2.8460937499999998E-2</v>
+      </c>
+      <c r="F29" s="28">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>5.9348879417957923</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="1"/>
+        <v>-5.9299889790442215</v>
+      </c>
+      <c r="H29" s="28">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J29" s="28">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>5.9275523637021053</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="3"/>
+        <v>6.8935150002857506E-2</v>
+      </c>
+      <c r="L29" s="28">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>4.8989627515707568E-3</v>
+      </c>
+      <c r="M29" s="28">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N29" s="29">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>-3.5108616018728611E-3</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>23</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F30" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J30" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K30" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L30" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N30" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="8"/>
+        <v>99.50711938663747</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F31" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J31" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K31" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L31" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N31" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="15">
+        <v>25</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F32" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I32" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J32" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K32" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L32" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N32" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>26</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F33" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I33" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J33" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K33" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L33" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N33" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="9">
+        <v>27</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F34" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J34" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K34" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L34" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N34" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
+        <v>28</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F35" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I35" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J35" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K35" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L35" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N35" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
+        <v>29</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F36" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I36" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J36" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K36" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L36" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N36" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>30</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F37" s="24" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J37" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K37" s="24">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L37" s="24" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="24">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N37" s="25">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O37" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
+        <v>31</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" ref="E38:E40" si="9">(C38+D38)/2</f>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F38" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I38" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J38" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K38" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L38" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N38" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" ref="O38:O40" si="10">ABS((E38-E37)/E38)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>32</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="9"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F39" s="22" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I39" s="22">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J39" s="22">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K39" s="22">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L39" s="22" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="22">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N39" s="23">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="9">
+        <v>33</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="E40" s="20">
+        <f t="shared" si="9"/>
+        <v>1.4265624999999999E-2</v>
+      </c>
+      <c r="F40" s="24" t="e">
+        <f>1/SQRT(Table13[[#This Row],[xl]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xu]])</f>
+        <v>5.9202439190743021</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="2"/>
+        <v>-5.9321348209166604</v>
+      </c>
+      <c r="J40" s="24">
+        <f>1/SQRT(Table13[[#This Row],[xr]])</f>
+        <v>8.3724892429117226</v>
+      </c>
+      <c r="K40" s="24">
+        <f t="shared" si="3"/>
+        <v>0.36889354757157444</v>
+      </c>
+      <c r="L40" s="24" t="e">
+        <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="24">
+        <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
+        <v>-1.1890901842358303E-2</v>
+      </c>
+      <c r="N40" s="25">
+        <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
+        <v>2.74138394073338</v>
+      </c>
+      <c r="O40" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C84985F-CFE0-4EFA-AA74-50383F116520}">
+  <dimension ref="B2:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,22 +4412,22 @@
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>2</v>
@@ -2051,43 +4458,43 @@
       </c>
       <c r="F10" s="2">
         <f>D10-((N10*E10)/(M10-N10))</f>
-        <v>8.0955506574939911</v>
+        <v>5.6310097308709728E-2</v>
       </c>
       <c r="G10" s="2">
-        <f xml:space="preserve"> 667.38/C10</f>
-        <v>83422.5</v>
+        <f xml:space="preserve"> 1/SQRT(C10)</f>
+        <v>11.180339887498949</v>
       </c>
       <c r="H10" s="2">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C10)</f>
-        <v>1.1740542583835722E-3</v>
+        <f>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*G10))</f>
+        <v>-5.3799047747847686</v>
       </c>
       <c r="I10" s="2">
-        <f xml:space="preserve"> 667.38/D10</f>
-        <v>8342.25</v>
+        <f xml:space="preserve"> 1/SQRT(D10)</f>
+        <v>3.5355339059327378</v>
       </c>
       <c r="J10" s="2">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D10)</f>
-        <v>1.1678708230771329E-2</v>
+        <f>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*I10))</f>
+        <v>-6.3799029103927758</v>
       </c>
       <c r="K10" s="2">
-        <f xml:space="preserve"> 667.38/F10</f>
-        <v>82.437875845074387</v>
+        <f xml:space="preserve"> 1/SQRT(F10)</f>
+        <v>4.2141196389782909</v>
       </c>
       <c r="L10" s="2">
-        <f xml:space="preserve"> 1-EXP(-0.146843*F10)</f>
-        <v>0.69540581983831096</v>
+        <f>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*K10))</f>
+        <v>-6.227399640300245</v>
       </c>
       <c r="M10" s="2">
-        <f>G10*H10-40</f>
-        <v>57.942541370003553</v>
+        <f>G10+H10</f>
+        <v>5.8004351127141804</v>
       </c>
       <c r="N10" s="2">
-        <f>I10*J10-40</f>
-        <v>57.426703738152113</v>
+        <f>I10+J10</f>
+        <v>-2.844369004460038</v>
       </c>
       <c r="O10" s="2">
-        <f>K10*L10-40</f>
-        <v>17.327778637772845</v>
+        <f>K10+L10</f>
+        <v>-2.0132800013219541</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>10</v>
@@ -2098,58 +4505,58 @@
         <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>8.0955506574939911</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>0.08</v>
+        <v>5.6310097308709728E-2</v>
       </c>
       <c r="E11" s="2">
         <f>C11-D11</f>
-        <v>8.015550657493991</v>
+        <v>-4.8310097308709728E-2</v>
       </c>
       <c r="F11" s="2">
-        <f>D11-((N11*E11)/(M11-N11))</f>
-        <v>11.55927660788354</v>
+        <f t="shared" ref="D11:F16" si="0">D11-((N11*E11)/(M11-N11))</f>
+        <v>4.3862528981215024E-2</v>
       </c>
       <c r="G11" s="2">
-        <f xml:space="preserve"> 667.38/C11</f>
-        <v>82.437875845074387</v>
+        <f t="shared" ref="G11:G19" si="1" xml:space="preserve"> 1/SQRT(C11)</f>
+        <v>11.180339887498949</v>
       </c>
       <c r="H11" s="2">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C11)</f>
-        <v>0.69540581983831096</v>
+        <f t="shared" ref="H11:H19" si="2">2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*G11))</f>
+        <v>-5.3799047747847686</v>
       </c>
       <c r="I11" s="2">
-        <f xml:space="preserve"> 667.38/D11</f>
-        <v>8342.25</v>
+        <f t="shared" ref="I11:I15" si="3" xml:space="preserve"> 1/SQRT(D11)</f>
+        <v>4.2141196389782909</v>
       </c>
       <c r="J11" s="2">
-        <f xml:space="preserve"> 1-EXP(-0.146843*D11)</f>
-        <v>1.1678708230771329E-2</v>
+        <f t="shared" ref="J11:J20" si="4">2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*I11))</f>
+        <v>-6.227399640300245</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:K15" si="0" xml:space="preserve"> 667.38/F11</f>
-        <v>57.735446831062106</v>
+        <f t="shared" ref="K11:K15" si="5" xml:space="preserve"> 1/SQRT(F11)</f>
+        <v>4.7747777993009484</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ref="L11:L15" si="1" xml:space="preserve"> 1-EXP(-0.146843*F11)</f>
-        <v>0.81684067104905944</v>
+        <f t="shared" ref="L11:L20" si="6">2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*K11))</f>
+        <v>-6.1189072992423066</v>
       </c>
       <c r="M11" s="2">
-        <f>G11*H11-40</f>
-        <v>17.327778637772845</v>
+        <f t="shared" ref="M11:M15" si="7">G11+H11</f>
+        <v>5.8004351127141804</v>
       </c>
       <c r="N11" s="2">
-        <f>I11*J11-40</f>
-        <v>57.426703738152113</v>
+        <f t="shared" ref="N11:N15" si="8">I11+J11</f>
+        <v>-2.0132800013219541</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11:O14" si="2">K11*L11-40</f>
-        <v>7.160661132802062</v>
+        <f t="shared" ref="O11:O15" si="9">K11+L11</f>
+        <v>-1.3441294999413582</v>
       </c>
       <c r="P11" s="2">
         <f>ABS((F11-F10)/F11)*100</f>
-        <v>29.964902371375501</v>
+        <v>28.378592426409377</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -2157,58 +4564,58 @@
         <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>8.0955506574939911</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>11.55927660788354</v>
+        <v>4.3862528981215024E-2</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E15" si="3">C12-D12</f>
-        <v>-3.4637259503895486</v>
+        <f t="shared" ref="E12:E15" si="10">C12-D12</f>
+        <v>-3.5862528981215024E-2</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F15" si="4">D12-((N12*E12)/(M12-N12))</f>
-        <v>13.998765260936498</v>
+        <f t="shared" si="0"/>
+        <v>3.7115598166037433E-2</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:G15" si="5" xml:space="preserve"> 667.38/C12</f>
-        <v>82.437875845074387</v>
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12:H15" si="6" xml:space="preserve"> 1-EXP(-0.146843*C12)</f>
-        <v>0.69540581983831096</v>
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ref="I12:I15" si="7" xml:space="preserve"> 667.38/D12</f>
-        <v>57.735446831062106</v>
+        <f t="shared" si="3"/>
+        <v>4.7747777993009484</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ref="J12:J15" si="8" xml:space="preserve"> 1-EXP(-0.146843*D12)</f>
-        <v>0.81684067104905944</v>
+        <f t="shared" si="4"/>
+        <v>-6.1189072992423066</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>47.674204657343701</v>
+        <f t="shared" si="5"/>
+        <v>5.1906502637308023</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.87198664533847536</v>
+        <f t="shared" si="6"/>
+        <v>-6.0463702569905076</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ref="M12:M15" si="9">G12*H12-40</f>
-        <v>17.327778637772845</v>
+        <f t="shared" si="7"/>
+        <v>5.8004351127141804</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12:N15" si="10">I12*J12-40</f>
-        <v>7.160661132802062</v>
+        <f t="shared" si="8"/>
+        <v>-1.3441294999413582</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
-        <v>1.5712697883370552</v>
+        <f t="shared" si="9"/>
+        <v>-0.85571999325970527</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P15" si="11">ABS((F12-F11)/F12)*100</f>
-        <v>17.426455887937074</v>
+        <v>18.178154599570373</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -2216,58 +4623,58 @@
         <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>13.998765260936498</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>11.55927660788354</v>
+        <v>3.7115598166037433E-2</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>2.4394886530529583</v>
+        <f t="shared" si="10"/>
+        <v>-2.9115598166037433E-2</v>
       </c>
       <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3372476338237346E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>5.1906502637308023</v>
+      </c>
+      <c r="J13" s="2">
         <f t="shared" si="4"/>
-        <v>14.684545622930466</v>
-      </c>
-      <c r="G13" s="2">
+        <v>-6.0463702569905076</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="5"/>
-        <v>47.674204657343701</v>
-      </c>
-      <c r="H13" s="2">
+        <v>5.4740124785923694</v>
+      </c>
+      <c r="L13" s="2">
         <f t="shared" si="6"/>
-        <v>0.87198664533847536</v>
-      </c>
-      <c r="I13" s="2">
+        <v>-6.0002023227729762</v>
+      </c>
+      <c r="M13" s="2">
         <f t="shared" si="7"/>
-        <v>57.735446831062106</v>
-      </c>
-      <c r="J13" s="2">
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N13" s="2">
         <f t="shared" si="8"/>
-        <v>0.81684067104905944</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>45.447780076889899</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88425001700276917</v>
-      </c>
-      <c r="M13" s="2">
+        <v>-0.85571999325970527</v>
+      </c>
+      <c r="O13" s="2">
         <f t="shared" si="9"/>
-        <v>1.5712697883370552</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="10"/>
-        <v>7.160661132802062</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18720030572800539</v>
+        <v>-0.52618984418060677</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="11"/>
-        <v>4.6700822729107578</v>
+        <v>11.216194416808417</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -2275,117 +4682,398 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>13.998765260936498</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>14.684545622930466</v>
+        <v>3.3372476338237346E-2</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>-0.68578036199396841</v>
+        <f t="shared" si="10"/>
+        <v>-2.5372476338237346E-2</v>
       </c>
       <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1262229648753477E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>5.4740124785923694</v>
+      </c>
+      <c r="J14" s="2">
         <f t="shared" si="4"/>
-        <v>14.777299848813355</v>
-      </c>
-      <c r="G14" s="2">
+        <v>-6.0002023227729762</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="5"/>
-        <v>47.674204657343701</v>
-      </c>
-      <c r="H14" s="2">
+        <v>5.6557476728265099</v>
+      </c>
+      <c r="L14" s="2">
         <f t="shared" si="6"/>
-        <v>0.87198664533847536</v>
-      </c>
-      <c r="I14" s="2">
+        <v>-5.9718338945909712</v>
+      </c>
+      <c r="M14" s="2">
         <f t="shared" si="7"/>
-        <v>45.447780076889899</v>
-      </c>
-      <c r="J14" s="2">
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N14" s="2">
         <f t="shared" si="8"/>
-        <v>0.88425001700276917</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>45.162513235027298</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.88581587954091245</v>
-      </c>
-      <c r="M14" s="2">
+        <v>-0.52618984418060677</v>
+      </c>
+      <c r="O14" s="2">
         <f t="shared" si="9"/>
-        <v>1.5712697883370552</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="10"/>
-        <v>0.18720030572800539</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" si="2"/>
-        <v>5.6713835638078081E-3</v>
+        <v>-0.31608622176446133</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="11"/>
-        <v>0.62768047499785262</v>
+        <v>6.7501477443980429</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>6</v>
       </c>
-      <c r="C15" s="3">
-        <v>14.777299848813355</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14.684545622930466</v>
+      <c r="C15" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.1262229648753477E-2</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="3"/>
-        <v>9.2754225882888619E-2</v>
-      </c>
-      <c r="F15" s="3">
+        <f t="shared" si="10"/>
+        <v>-2.3262229648753477E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0060096953156746E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6557476728265099</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>14.780197705451704</v>
-      </c>
-      <c r="G15" s="3">
+        <v>-5.9718338945909712</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>45.162513235027298</v>
-      </c>
-      <c r="H15" s="3">
+        <v>5.7677285336686568</v>
+      </c>
+      <c r="L15" s="2">
         <f t="shared" si="6"/>
-        <v>0.88581587954091245</v>
-      </c>
-      <c r="I15" s="3">
+        <v>-5.9548043556324917</v>
+      </c>
+      <c r="M15" s="2">
         <f t="shared" si="7"/>
-        <v>45.447780076889899</v>
-      </c>
-      <c r="J15" s="3">
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N15" s="2">
         <f t="shared" si="8"/>
-        <v>0.88425001700276917</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="0"/>
-        <v>45.153658516613454</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.88586445796887048</v>
-      </c>
-      <c r="M15" s="3">
+        <v>-0.31608622176446133</v>
+      </c>
+      <c r="O15" s="2">
         <f t="shared" si="9"/>
-        <v>5.6713835638078081E-3</v>
-      </c>
-      <c r="N15" s="3">
-        <f t="shared" si="10"/>
-        <v>0.18720030572800539</v>
-      </c>
-      <c r="O15" s="3">
-        <f>K15*L15-40</f>
-        <v>2.1227131249190734E-5</v>
+        <v>-0.18707582196383488</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="11"/>
-        <v>1.960634557195232E-2</v>
+        <v>3.9990978654195248</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.0060096953156746E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16:E20" si="12">C16-D16</f>
+        <v>-2.2060096953156746E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ref="D16:F20" si="13">D16-((N16*E16)/(M16-N16))</f>
+        <v>2.9370843803536301E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" ref="I16:I20" si="14" xml:space="preserve"> 1/SQRT(D16)</f>
+        <v>5.7677285336686568</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>-5.9548043556324917</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" ref="K16:K20" si="15" xml:space="preserve"> 1/SQRT(F16)</f>
+        <v>5.8350124652954314</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="6"/>
+        <v>-5.9447304215923191</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ref="M16:M20" si="16">G16+H16</f>
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ref="N16:N20" si="17">I16+J16</f>
+        <v>-0.18707582196383488</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" ref="O16:O20" si="18">K16+L16</f>
+        <v>-0.10971795629688774</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" ref="P16:P20" si="19">ABS((F16-F15)/F16)*100</f>
+        <v>2.346725733284714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.9370843803536301E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="12"/>
+        <v>-2.13708438035363E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="13"/>
+        <v>2.897410868025186E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="14"/>
+        <v>5.8350124652954314</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>-5.9447304215923191</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="15"/>
+        <v>5.874825314910689</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="6"/>
+        <v>-5.9388240939148078</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="16"/>
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="17"/>
+        <v>-0.10971795629688774</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="18"/>
+        <v>-6.3998779004118767E-2</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="19"/>
+        <v>1.3692746433123124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="30">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.0312622296487501</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.0232622296487501</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="13"/>
+        <v>1.3380653702638412</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="14"/>
+        <v>0.57436536825012896</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>-7.958422374384635</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="15"/>
+        <v>0.86449270819178226</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="6"/>
+        <v>-7.6032818300420226</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="16"/>
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="17"/>
+        <v>-7.3840570061345057</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="18"/>
+        <v>-6.7387891218502407</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="19"/>
+        <v>97.834626818378922</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.0312622296487497</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="12"/>
+        <v>-4.0232622296487497</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="13"/>
+        <v>1.751544477093125</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>11.180339887498949</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.3799047747847686</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="14"/>
+        <v>0.49805748961100366</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="4"/>
+        <v>-8.0822373443444846</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="15"/>
+        <v>0.75559559095872608</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="6"/>
+        <v>-7.7202240617036937</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="16"/>
+        <v>5.8004351127141804</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="17"/>
+        <v>-7.5841798547334811</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="18"/>
+        <v>-6.9646284707449677</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="19"/>
+        <v>23.606543381387411</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>5.0312622296487497</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="12"/>
+        <v>-5.0312622296487497</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="14"/>
+        <v>0.44582202822241918</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="4"/>
+        <v>-8.1784709804560691</v>
+      </c>
+      <c r="K20" s="2" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="2" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" si="17"/>
+        <v>-7.7326489522336503</v>
+      </c>
+      <c r="O20" s="2" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="3" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +5082,437 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4128C6-326D-4C1A-AF1C-44CDA4E8163E}">
+  <dimension ref="B2:P15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="12" width="21.140625" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E10" s="2">
+        <f>C10-D10</f>
+        <v>-7.2000000000000008E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10-((N10*E10)/(M10-N10))</f>
+        <v>8.0955506574939911</v>
+      </c>
+      <c r="G10" s="2">
+        <f xml:space="preserve"> 667.38/C10</f>
+        <v>83422.5</v>
+      </c>
+      <c r="H10" s="2">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C10)</f>
+        <v>1.1740542583835722E-3</v>
+      </c>
+      <c r="I10" s="2">
+        <f xml:space="preserve"> 667.38/D10</f>
+        <v>8342.25</v>
+      </c>
+      <c r="J10" s="2">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D10)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f xml:space="preserve"> 667.38/F10</f>
+        <v>82.437875845074387</v>
+      </c>
+      <c r="L10" s="2">
+        <f xml:space="preserve"> 1-EXP(-0.146843*F10)</f>
+        <v>0.69540581983831096</v>
+      </c>
+      <c r="M10" s="2">
+        <f>G10*H10-40</f>
+        <v>57.942541370003553</v>
+      </c>
+      <c r="N10" s="2">
+        <f>I10*J10-40</f>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="O10" s="2">
+        <f>K10*L10-40</f>
+        <v>17.327778637772845</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.0955506574939911</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E11" s="2">
+        <f>C11-D11</f>
+        <v>8.015550657493991</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11-((N11*E11)/(M11-N11))</f>
+        <v>11.55927660788354</v>
+      </c>
+      <c r="G11" s="2">
+        <f xml:space="preserve"> 667.38/C11</f>
+        <v>82.437875845074387</v>
+      </c>
+      <c r="H11" s="2">
+        <f xml:space="preserve"> 1-EXP(-0.146843*C11)</f>
+        <v>0.69540581983831096</v>
+      </c>
+      <c r="I11" s="2">
+        <f xml:space="preserve"> 667.38/D11</f>
+        <v>8342.25</v>
+      </c>
+      <c r="J11" s="2">
+        <f xml:space="preserve"> 1-EXP(-0.146843*D11)</f>
+        <v>1.1678708230771329E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K15" si="0" xml:space="preserve"> 667.38/F11</f>
+        <v>57.735446831062106</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ref="L11:L15" si="1" xml:space="preserve"> 1-EXP(-0.146843*F11)</f>
+        <v>0.81684067104905944</v>
+      </c>
+      <c r="M11" s="2">
+        <f>G11*H11-40</f>
+        <v>17.327778637772845</v>
+      </c>
+      <c r="N11" s="2">
+        <f>I11*J11-40</f>
+        <v>57.426703738152113</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ref="O11:O14" si="2">K11*L11-40</f>
+        <v>7.160661132802062</v>
+      </c>
+      <c r="P11" s="2">
+        <f>ABS((F11-F10)/F11)*100</f>
+        <v>29.964902371375501</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.0955506574939911</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.55927660788354</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:E15" si="3">C12-D12</f>
+        <v>-3.4637259503895486</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F15" si="4">D12-((N12*E12)/(M12-N12))</f>
+        <v>13.998765260936498</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G15" si="5" xml:space="preserve"> 667.38/C12</f>
+        <v>82.437875845074387</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:H15" si="6" xml:space="preserve"> 1-EXP(-0.146843*C12)</f>
+        <v>0.69540581983831096</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I15" si="7" xml:space="preserve"> 667.38/D12</f>
+        <v>57.735446831062106</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J15" si="8" xml:space="preserve"> 1-EXP(-0.146843*D12)</f>
+        <v>0.81684067104905944</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>47.674204657343701</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.87198664533847536</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12:M15" si="9">G12*H12-40</f>
+        <v>17.327778637772845</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ref="N12:N15" si="10">I12*J12-40</f>
+        <v>7.160661132802062</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5712697883370552</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12:P15" si="11">ABS((F12-F11)/F12)*100</f>
+        <v>17.426455887937074</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.998765260936498</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11.55927660788354</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4394886530529583</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>14.684545622930466</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="5"/>
+        <v>47.674204657343701</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.87198664533847536</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="7"/>
+        <v>57.735446831062106</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="8"/>
+        <v>0.81684067104905944</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>45.447780076889899</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88425001700276917</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5712697883370552</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="10"/>
+        <v>7.160661132802062</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.18720030572800539</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="11"/>
+        <v>4.6700822729107578</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.998765260936498</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14.684545622930466</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>-0.68578036199396841</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
+        <v>14.777299848813355</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="5"/>
+        <v>47.674204657343701</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.87198664533847536</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
+        <v>45.447780076889899</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="8"/>
+        <v>0.88425001700276917</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>45.162513235027298</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.88581587954091245</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="9"/>
+        <v>1.5712697883370552</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="10"/>
+        <v>0.18720030572800539</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.6713835638078081E-3</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="11"/>
+        <v>0.62768047499785262</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14.777299848813355</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14.684545622930466</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="3"/>
+        <v>9.2754225882888619E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="4"/>
+        <v>14.780197705451704</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="5"/>
+        <v>45.162513235027298</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88581587954091245</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="7"/>
+        <v>45.447780076889899</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="8"/>
+        <v>0.88425001700276917</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>45.153658516613454</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88586445796887048</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6713835638078081E-3</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="10"/>
+        <v>0.18720030572800539</v>
+      </c>
+      <c r="O15" s="3">
+        <f>K15*L15-40</f>
+        <v>2.1227131249190734E-5</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="11"/>
+        <v>1.960634557195232E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5508DB-C1B0-4529-9F10-3C257FC3BE94}">
   <dimension ref="B2:U28"/>
   <sheetViews>

--- a/SEMESTER 1/METODE KOMPUTASI/Tugas 1-Metode Komputasi-Tobias Mikha S.xlsx
+++ b/SEMESTER 1/METODE KOMPUTASI/Tugas 1-Metode Komputasi-Tobias Mikha S.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias.sulistiyo\Desktop\Pascasarjana\SEMESTER 1\METODE KOMPUTASI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S2-Pascasarjana\SEMESTER 1\METODE KOMPUTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A4D83A-3033-4585-A1E5-AA2D46AEC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="5" r:id="rId1"/>
     <sheet name="Bisection" sheetId="6" r:id="rId2"/>
     <sheet name="False Position" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId4"/>
-    <sheet name="Newthon Raphson" sheetId="3" r:id="rId5"/>
+    <sheet name="Newthon Raphson" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Bracketing Methode Using Bisection method</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>f(xl)</t>
-  </si>
-  <si>
-    <t>667.38/xl</t>
   </si>
   <si>
     <t>1-e^-0,146843.xl</t>
@@ -77,16 +74,7 @@
     <t>1-e^-0,146843.xu</t>
   </si>
   <si>
-    <t>f(x)</t>
-  </si>
-  <si>
-    <t>f'(x)</t>
-  </si>
-  <si>
     <t>err</t>
-  </si>
-  <si>
-    <t>Using Newthon Raphson</t>
   </si>
   <si>
     <t xml:space="preserve">Xr =(xl+xu)/2 </t>
@@ -118,11 +106,23 @@
   <si>
     <t>xr = (xl+xu)/2</t>
   </si>
+  <si>
+    <t>Methode Newthon Raphson</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>g(x)</t>
+  </si>
+  <si>
+    <t>g'(x)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -329,37 +329,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -372,6 +347,37 @@
   </cellStyles>
   <dxfs count="38">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -387,8 +393,136 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -415,165 +549,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -625,30 +600,30 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -987,7 +962,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8A9E10C-85A0-2798-E659-A6B6BD70A432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1036,7 +1011,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E89FCFE7-B16E-BB35-5149-7A146F18BA35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,7 +1060,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E89FCFE7-B16E-BB35-5149-7A146F18BA35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1104,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BC71BB7-4BEA-4096-BE5F-3F15311E2EF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,23 +1137,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>705053</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>181049</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428827</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA5F0F88-1472-7F38-EF7E-F7608CA2EB86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9BBE5E-0967-44CE-ACFC-F9F8CDC8A012}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,8 +1169,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1076325" y="409575"/>
-          <a:ext cx="1457528" cy="533474"/>
+          <a:off x="5076825" y="447675"/>
+          <a:ext cx="1448002" cy="628738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,23 +1181,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>819380</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161981</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>490678</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCB8DC3A-4FE7-1576-322A-4249A4A02589}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09993AD-E5FD-447A-92D8-8DFA9946A0EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,52 +1213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2600325" y="523875"/>
-          <a:ext cx="1648055" cy="400106"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38302</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85813</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE4310AC-7070-5AC0-27B1-F19EBEB79726}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4381500" y="409575"/>
-          <a:ext cx="1448002" cy="628738"/>
+          <a:off x="1133475" y="438150"/>
+          <a:ext cx="3624403" cy="581106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,43 +1227,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B7:O19" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="B7:O19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="B7:O19" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="B7:O19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="i" dataDxfId="32"/>
-    <tableColumn id="2" name="xl" dataDxfId="31"/>
-    <tableColumn id="3" name="xu" dataDxfId="30"/>
-    <tableColumn id="5" name="xr = (xl+xu)/2" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="i" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="xl" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="xu" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="xr = (xl+xu)/2" dataDxfId="29">
       <calculatedColumnFormula>(C8+D8)/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="1/root(xl)" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="1/root(xl)" dataDxfId="28">
       <calculatedColumnFormula>1/SQRT(Table13[[#This Row],[xl]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="1-e^-0,146843.xl" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="1-e^-0,146843.xl" dataDxfId="27">
       <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*F8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="1/root(xu)" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="1/root(xu)" dataDxfId="26">
       <calculatedColumnFormula>1/SQRT(Table13[[#This Row],[xu]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="1-e^-0,146843.xu" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="1-e^-0,146843.xu" dataDxfId="25">
       <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*H8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="1/root(xr)" dataDxfId="24">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="1/root(xr)" dataDxfId="24">
       <calculatedColumnFormula>1/SQRT(Table13[[#This Row],[xr = (xl+xu)/2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="1-e^-0,146843.xr" dataDxfId="23">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="1-e^-0,146843.xr" dataDxfId="23">
       <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13.743*J8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="f(xl)" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="f(xl)" dataDxfId="22">
       <calculatedColumnFormula>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="f(xu)" dataDxfId="21">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="f(xu)" dataDxfId="21">
       <calculatedColumnFormula>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="f(xr)" dataDxfId="20">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="f(xr)" dataDxfId="20">
       <calculatedColumnFormula>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="er(%)" dataDxfId="19">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="er(%)" dataDxfId="19">
       <calculatedColumnFormula>ABS((E8-E7)/E8)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1341,47 +1272,69 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="B7:O19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
-  <autoFilter ref="B7:O19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table134" displayName="Table134" ref="B7:O19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="B7:O19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="i" dataDxfId="13"/>
-    <tableColumn id="2" name="xl" dataDxfId="12"/>
-    <tableColumn id="3" name="xu" dataDxfId="11"/>
-    <tableColumn id="5" name="xr" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="i" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="xl" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="xu" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="xr" dataDxfId="10">
       <calculatedColumnFormula>Table134[[#This Row],[xu]]-((Table134[[#This Row],[f(xu)]]*(Table134[[#This Row],[xl]]-Table134[[#This Row],[xu]]))/(Table134[[#This Row],[f(xl)]]-Table134[[#This Row],[f(xu)]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="1/root(xl)" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="1/root(xl)" dataDxfId="9">
       <calculatedColumnFormula>1/SQRT(Table134[[#This Row],[xl]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="1-e^-0,146843.xl" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="1-e^-0,146843.xl" dataDxfId="8">
       <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*F8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="1/root(xu)" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="1/root(xu)" dataDxfId="7">
       <calculatedColumnFormula>1/SQRT(Table134[[#This Row],[xu]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="1-e^-0,146843.xu" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="1-e^-0,146843.xu" dataDxfId="6">
       <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*H8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="1/root(xr)" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="1/root(xr)" dataDxfId="5">
       <calculatedColumnFormula>1/SQRT(Table134[[#This Row],[xr]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="1-e^-0,146843.xr" dataDxfId="0">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="1-e^-0,146843.xr" dataDxfId="4">
       <calculatedColumnFormula>2*LOG((0.0000015/3.7*(0.005))+(2.51/13743*J8))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="f(xl)" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="f(xl)" dataDxfId="3">
       <calculatedColumnFormula>Table134[[#This Row],[1/root(xl)]]+Table134[[#This Row],[1-e^-0,146843.xl]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="f(xu)" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="f(xu)" dataDxfId="2">
       <calculatedColumnFormula>Table134[[#This Row],[1/root(xu)]]+Table134[[#This Row],[1-e^-0,146843.xu]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="f(xr)" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="f(xr)" dataDxfId="1">
       <calculatedColumnFormula>Table134[[#This Row],[1/root(xr)]]+Table134[[#This Row],[1-e^-0,146843.xr]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="er(%)" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="er(%)" dataDxfId="0">
       <calculatedColumnFormula>ABS((E8-E7)/E8)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C95367DE-31AF-41D4-A62E-7EB77C67CFE6}" name="Table1" displayName="Table1" ref="C8:G16" totalsRowShown="0">
+  <autoFilter ref="C8:G16" xr:uid="{C95367DE-31AF-41D4-A62E-7EB77C67CFE6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2DC28E1C-BC55-4B74-AB2C-9E6254B2845C}" name="i"/>
+    <tableColumn id="2" xr3:uid="{A7271DA8-ADF3-4560-933B-EF585C2A91CB}" name="x">
+      <calculatedColumnFormula>D8 - E8/F8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D47C4E0E-B324-4E84-AD75-A20F7E5EC4EB}" name="g(x)">
+      <calculatedColumnFormula>1/SQRT(D9) + 2*LOG(0.0000015/(3.7*0.005) + 2.51/(13743*SQRT(D9)))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B077F06C-6491-4473-A222-CF995A082467}" name="g'(x)">
+      <calculatedColumnFormula>-(0.3653579493*D9^(3/2) + 0.1826384341*D9)/(0.3652768682*D9^(5/2) + 0.0001621622*D9^3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B9229337-5F97-4C64-9B2B-AC24C6FF0429}" name="err">
+      <calculatedColumnFormula>ABS((D9 - D8) / D9) * 100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1681,10 +1634,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1692,12 +1645,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1737,7 +1690,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -1745,43 +1698,43 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -1834,7 +1787,7 @@
         <v>4.8113129462279609</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2167,7 +2120,7 @@
         <v>0.70810385523209263</v>
       </c>
     </row>
-    <row r="15" spans="2:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>8</v>
       </c>
@@ -2223,56 +2176,56 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="8">
         <v>7.9718750000000005E-2</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="8">
         <v>0.08</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="16">
         <f t="shared" si="0"/>
         <v>7.985937500000001E-2</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="8">
         <f>1/SQRT(Table13[[#This Row],[xl]])</f>
         <v>3.5417651464775051</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>-6.378373408487831</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="8">
         <f>1/SQRT(Table13[[#This Row],[xu]])</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>-6.3799029103927758</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="8">
         <f>1/SQRT(Table13[[#This Row],[xr = (xl+xu)/2]])</f>
         <v>3.5386454114636554</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="8">
         <f t="shared" si="3"/>
         <v>-0.37914155427653051</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="8">
         <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>-2.8366082620103259</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="8">
         <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-2.844369004460038</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="8">
         <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>3.1595038571871248</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="9">
         <f t="shared" si="4"/>
         <v>0.17609078458228017</v>
       </c>
@@ -2333,7 +2286,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="7">
         <v>11</v>
       </c>
       <c r="C18" s="8">
@@ -2346,39 +2299,39 @@
         <f t="shared" ref="E18:E19" si="5">(C18+D18)/2</f>
         <v>7.9964843750000014E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="8">
         <f>1/SQRT(Table13[[#This Row],[xl]])</f>
         <v>3.5370886322753625</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>-6.3795210396173525</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="8">
         <f>1/SQRT(Table13[[#This Row],[xu]])</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
         <v>-6.3799029103927758</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="8">
         <f>1/SQRT(Table13[[#This Row],[xr = (xl+xu)/2]])</f>
         <v>3.5363110127803958</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="8">
         <f t="shared" si="3"/>
         <v>-0.37971474028052504</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="8">
         <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>-2.84243240734199</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="8">
         <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-2.844369004460038</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="9">
         <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>3.1565962724998706</v>
       </c>
@@ -2401,39 +2354,39 @@
         <f t="shared" si="5"/>
         <v>7.9982421875000015E-2</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="14">
         <f>1/SQRT(Table13[[#This Row],[xl]])</f>
         <v>3.5363110127803958</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
         <v>-6.3797120169771526</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="14">
         <f>1/SQRT(Table13[[#This Row],[xu]])</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="14">
         <f t="shared" si="2"/>
         <v>-6.3799029103927758</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="14">
         <f>1/SQRT(Table13[[#This Row],[xr = (xl+xu)/2]])</f>
         <v>3.5359223953108629</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="14">
         <f t="shared" si="3"/>
         <v>-0.37981019777605191</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="14">
         <f>Table13[[#This Row],[1/root(xl)]]+Table13[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>-2.8434010041967568</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="14">
         <f>Table13[[#This Row],[1/root(xu)]]+Table13[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-2.844369004460038</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="15">
         <f>Table13[[#This Row],[1/root(xr)]]+Table13[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>3.156112197534811</v>
       </c>
@@ -2452,10 +2405,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2477,7 +2430,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2486,43 +2439,43 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2576,7 +2529,7 @@
         <v>-2.0132800013219541</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2909,151 +2862,151 @@
         <v>2.346725733284714</v>
       </c>
     </row>
-    <row r="15" spans="2:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="8">
         <v>2.9370843803536301E-2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="16">
         <f>Table134[[#This Row],[xu]]-((Table134[[#This Row],[f(xu)]]*(Table134[[#This Row],[xl]]-Table134[[#This Row],[xu]]))/(Table134[[#This Row],[f(xl)]]-Table134[[#This Row],[f(xu)]]))</f>
         <v>2.897410868025186E-2</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="8">
         <f>1/SQRT(Table134[[#This Row],[xl]])</f>
         <v>11.180339887498949</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>-5.3799047747847686</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="8">
         <f>1/SQRT(Table134[[#This Row],[xu]])</f>
         <v>5.8350124652954314</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>-5.9447304215923191</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="8">
         <f>1/SQRT(Table134[[#This Row],[xr]])</f>
         <v>5.874825314910689</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="8">
         <f t="shared" si="2"/>
         <v>-5.9388240939148078</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="8">
         <f>Table134[[#This Row],[1/root(xl)]]+Table134[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>5.8004351127141804</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="8">
         <f>Table134[[#This Row],[1/root(xu)]]+Table134[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-0.10971795629688774</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="8">
         <f>Table134[[#This Row],[1/root(xr)]]+Table134[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>-6.3998779004118767E-2</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="9">
         <f t="shared" si="3"/>
         <v>1.3692746433123124</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
       <c r="C16" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="8">
         <v>2.897410868025186E-2</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="16">
         <f>Table134[[#This Row],[xu]]-((Table134[[#This Row],[f(xu)]]*(Table134[[#This Row],[xl]]-Table134[[#This Row],[xu]]))/(Table134[[#This Row],[f(xl)]]-Table134[[#This Row],[f(xu)]]))</f>
         <v>2.8745217474208697E-2</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="8">
         <f>1/SQRT(Table134[[#This Row],[xl]])</f>
         <v>11.180339887498949</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>-5.3799047747847686</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="8">
         <f>1/SQRT(Table134[[#This Row],[xu]])</f>
         <v>5.874825314910689</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="8">
         <f t="shared" si="1"/>
         <v>-5.9388240939148078</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="8">
         <f>1/SQRT(Table134[[#This Row],[xr]])</f>
         <v>5.8981688430273289</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="8">
         <f t="shared" si="2"/>
         <v>-5.9353796142914925</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="8">
         <f>Table134[[#This Row],[1/root(xl)]]+Table134[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>5.8004351127141804</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="8">
         <f>Table134[[#This Row],[1/root(xu)]]+Table134[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-6.3998779004118767E-2</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="8">
         <f>Table134[[#This Row],[1/root(xr)]]+Table134[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>-3.7210771264163611E-2</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="9">
         <f t="shared" si="3"/>
         <v>0.79627578482762751</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
+      <c r="B17" s="19">
         <v>10</v>
       </c>
       <c r="C17" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="20">
         <v>2.8745217474208697E-2</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="21">
         <f>Table134[[#This Row],[xu]]-((Table134[[#This Row],[f(xu)]]*(Table134[[#This Row],[xl]]-Table134[[#This Row],[xu]]))/(Table134[[#This Row],[f(xl)]]-Table134[[#This Row],[f(xu)]]))</f>
         <v>2.8612981713835368E-2</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <f>1/SQRT(Table134[[#This Row],[xl]])</f>
         <v>11.180339887498949</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="20">
         <f t="shared" si="0"/>
         <v>-5.3799047747847686</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="20">
         <f>1/SQRT(Table134[[#This Row],[xu]])</f>
         <v>5.8981688430273289</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="20">
         <f t="shared" si="1"/>
         <v>-5.9353796142914925</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="20">
         <f>1/SQRT(Table134[[#This Row],[xr]])</f>
         <v>5.9117824151218956</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="20">
         <f t="shared" si="2"/>
         <v>-5.9333771366802726</v>
       </c>
@@ -3069,13 +3022,13 @@
         <f>Table134[[#This Row],[1/root(xr)]]+Table134[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>-2.1594721558376939E-2</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="22">
         <f t="shared" si="3"/>
         <v>0.46215302444130668</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25">
+      <c r="B18" s="7">
         <v>11</v>
       </c>
       <c r="C18" s="8">
@@ -3088,39 +3041,39 @@
         <f>Table134[[#This Row],[xu]]-((Table134[[#This Row],[f(xu)]]*(Table134[[#This Row],[xl]]-Table134[[#This Row],[xu]]))/(Table134[[#This Row],[f(xl)]]-Table134[[#This Row],[f(xu)]]))</f>
         <v>2.8536525286563589E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="8">
         <f>1/SQRT(Table134[[#This Row],[xl]])</f>
         <v>11.180339887498949</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>-5.3799047747847686</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="8">
         <f>1/SQRT(Table134[[#This Row],[xu]])</f>
         <v>5.9117824151218956</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="8">
         <f t="shared" si="1"/>
         <v>-5.9333771366802726</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="8">
         <f>1/SQRT(Table134[[#This Row],[xr]])</f>
         <v>5.919696683095748</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="8">
         <f t="shared" si="2"/>
         <v>-5.9322151122385103</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="8">
         <f>Table134[[#This Row],[1/root(xl)]]+Table134[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>5.8004351127141804</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="8">
         <f>Table134[[#This Row],[1/root(xu)]]+Table134[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-2.1594721558376939E-2</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="9">
         <f>Table134[[#This Row],[1/root(xr)]]+Table134[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>-1.2518429142762244E-2</v>
       </c>
@@ -3143,39 +3096,39 @@
         <f>Table134[[#This Row],[xu]]-((Table134[[#This Row],[f(xu)]]*(Table134[[#This Row],[xl]]-Table134[[#This Row],[xu]]))/(Table134[[#This Row],[f(xl)]]-Table134[[#This Row],[f(xu)]]))</f>
         <v>2.8492299053756599E-2</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="14">
         <f>1/SQRT(Table134[[#This Row],[xl]])</f>
         <v>11.180339887498949</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
         <v>-5.3799047747847686</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="14">
         <f>1/SQRT(Table134[[#This Row],[xu]])</f>
         <v>5.919696683095748</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>-5.9322151122385103</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="14">
         <f>1/SQRT(Table134[[#This Row],[xr]])</f>
         <v>5.9242892287348656</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="14">
         <f t="shared" si="2"/>
         <v>-5.9315415168439225</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="14">
         <f>Table134[[#This Row],[1/root(xl)]]+Table134[[#This Row],[1-e^-0,146843.xl]]</f>
         <v>5.8004351127141804</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="14">
         <f>Table134[[#This Row],[1/root(xu)]]+Table134[[#This Row],[1-e^-0,146843.xu]]</f>
         <v>-1.2518429142762244E-2</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="15">
         <f>Table134[[#This Row],[1/root(xr)]]+Table134[[#This Row],[1-e^-0,146843.xr]]</f>
         <v>-7.2522881090568703E-3</v>
       </c>
@@ -3194,529 +3147,208 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="8" width="21.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T4" t="s">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E9">
+        <f>1/SQRT(D9) + 2*LOG(0.0000015/(3.7*0.005) + 2.51/(13743*SQRT(D9)))</f>
+        <v>5.8342565891436111</v>
+      </c>
+      <c r="F9">
+        <f>-(0.3653579493*D9^(3/2) + 0.1826384341*D9)/(0.3652768682*D9^(5/2) + 0.0001621622*D9^3)</f>
+        <v>-823.76627972933795</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>D9 - E9/F9</f>
+        <v>1.5082417346653899E-2</v>
+      </c>
+      <c r="E10">
+        <f>1/SQRT(D10) + 2*LOG(0.0000015/(3.7*0.005) + 2.51/(13743*SQRT(D10)))</f>
+        <v>2.5334504235420345</v>
+      </c>
+      <c r="F10">
+        <f>-(0.3653579493*D10^(3/2) + 0.1826384341*D10)/(0.3652768682*D10^(5/2) + 0.0001621622*D10^3)</f>
+        <v>-336.2364730522014</v>
+      </c>
+      <c r="G10">
+        <f>ABS((D10 - D9) / D10) * 100</f>
+        <v>46.958104817495752</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D13" si="0">D10 - E10/F10</f>
+        <v>2.2617145511461621E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E13" si="1">1/SQRT(D11) + 2*LOG(0.0000015/(3.7*0.005) + 2.51/(13743*SQRT(D11)))</f>
+        <v>0.87426300036163962</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F13" si="2">-(0.3653579493*D11^(3/2) + 0.1826384341*D11)/(0.3652768682*D11^(5/2) + 0.0001621622*D11^3)</f>
+        <v>-191.20993245890597</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G13" si="3">ABS((D11 - D10) / D11) * 100</f>
+        <v>33.314231280819108</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
         <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T5" t="e">
-        <f xml:space="preserve"> 667.38/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D8">
-        <f>EXP(-C8)-C8</f>
-        <v>0.98403191483706065</v>
-      </c>
-      <c r="E8">
-        <f>-EXP(-C8)-1</f>
-        <v>-1.9920319148370607</v>
-      </c>
-      <c r="F8">
-        <v>100</v>
-      </c>
-      <c r="T8" t="e">
-        <f xml:space="preserve"> 667.38/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U8">
-        <f xml:space="preserve"> 1-EXP(-0.146843*C5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f>C8-(D8/E8)</f>
-        <v>0.50198401075193122</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D28" si="0">EXP(-C9)-C9</f>
-        <v>0.1033444785642943</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E28" si="1">-EXP(-C9)-1</f>
-        <v>-1.6053284893162254</v>
-      </c>
-      <c r="F9">
-        <f>ABS((C9-C8)/C9)*100</f>
-        <v>98.406323741663272</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C28" si="2">C9-(D9/E9)</f>
-        <v>0.56635991839455513</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.2278302629078475E-3</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>-1.567587748657463</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F28" si="3">ABS((C10-C9)/C10)*100</f>
-        <v>11.366607267178885</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56714317934052727</v>
-      </c>
-      <c r="D11" s="1">
-        <f>EXP(-C11)-C11</f>
-        <v>1.7406144370291088E-7</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.567143353401971</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>0.13810638556614854</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978162</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>3.5527136788005009E-15</v>
+        <v>2.7189413223284241E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>-1.5671432904097853</v>
+        <v>0.21471901782509217</v>
       </c>
       <c r="F12">
-        <f>ABS((C12-C11)/C12)*100</f>
-        <v>1.9583984546319324E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>5</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-148.30082034344551</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>16.816353020472906</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8637274518507224E-2</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
+        <v>3.8446226918064319E-2</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
+        <v>-138.09142650611611</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>3.9151411764846085E-13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14">
+        <v>5.0558627507910483</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D16" si="4">D13 - E13/F13</f>
+        <v>2.8915685915150747E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E16" si="5">1/SQRT(D14) + 2*LOG(0.0000015/(3.7*0.005) + 2.51/(13743*SQRT(D14)))</f>
+        <v>6.0214838314580632E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F16" si="6">-(0.3653579493*D14^(3/2) + 0.1826384341*D14)/(0.3652768682*D14^(5/2) + 0.0001621622*D14^3)</f>
+        <v>-136.26870680602306</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G16" si="7">ABS((D14 - D13) / D14) * 100</f>
+        <v>0.96283863872530706</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>6</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8959874224943907E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="5"/>
+        <v>9.1659928802823032E-4</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="6"/>
+        <v>-135.98328842514985</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15258460534023963</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.8966614753862155E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
+        <f t="shared" si="5"/>
+        <v>1.3888367100278742E-4</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="2"/>
-        <v>0.56714329040978384</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>-1.567143290409784</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-135.93984255458614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>2.3269991939078381E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>